--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Inclusive-Language-using-Python\Inclusive-Language-using-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CDF4018-3136-472D-8328-2239ADB3CEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF98910-ABBF-47F9-8569-84F968132A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="12" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
   <si>
     <t>KEY</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>Chairperson</t>
+  </si>
+  <si>
+    <t>Malefactor</t>
+  </si>
+  <si>
+    <t>criminal, wrongdoer</t>
+  </si>
+  <si>
+    <t>meddler in the middle</t>
+  </si>
+  <si>
+    <t>man in the middle</t>
   </si>
 </sst>
 </file>
@@ -472,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6858CDCC-8F19-4C26-BB84-3C886140036A}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -562,10 +574,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09836E84-368E-489C-9D89-DF2EE8B16D2B}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,6 +610,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -945,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5D6BBD-6DA2-42DF-A06F-6A55D030943B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Inclusive-Language-using-Python\Inclusive-Language-using-Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divek\Documents\GitHub\Inclusive-Language-using-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF98910-ABBF-47F9-8569-84F968132A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B75283-C95F-427C-B250-7022611D25DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="12" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="8820" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
   <si>
     <t>KEY</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>man in the middle</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -482,20 +488,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6858CDCC-8F19-4C26-BB84-3C886140036A}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -511,9 +525,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,9 +548,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,9 +571,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,25 +590,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09836E84-368E-489C-9D89-DF2EE8B16D2B}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -602,7 +616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -610,7 +624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -618,7 +632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -639,9 +653,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,9 +676,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,9 +699,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,9 +722,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,9 +745,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -754,9 +768,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -777,17 +791,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -808,9 +822,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -831,9 +845,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -854,9 +868,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -877,17 +891,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -908,9 +922,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,9 +945,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -954,9 +968,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -977,21 +991,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1013,21 +1027,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1048,9 +1062,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1071,9 +1085,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1094,17 +1108,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1125,9 +1139,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1148,9 +1162,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divek\Documents\GitHub\Inclusive-Language-using-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B75283-C95F-427C-B250-7022611D25DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCDDEB2-6461-439D-BDD5-3B931DE87156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="8820" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
   <si>
     <t>KEY</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>man in the middle</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
 </sst>
 </file>
@@ -488,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6858CDCC-8F19-4C26-BB84-3C886140036A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -502,14 +496,6 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divek\Documents\GitHub\Inclusive-Language-using-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCDDEB2-6461-439D-BDD5-3B931DE87156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8934DAC2-5F3E-44EA-9565-EAE4B9152251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="8820" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="15" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>KEY</t>
   </si>
@@ -117,6 +117,36 @@
   </si>
   <si>
     <t>man in the middle</t>
+  </si>
+  <si>
+    <t>Waiter</t>
+  </si>
+  <si>
+    <t>Waitress</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>Parent, guardian or caregivers</t>
+  </si>
+  <si>
+    <t>Dad</t>
+  </si>
+  <si>
+    <t>Autistic</t>
+  </si>
+  <si>
+    <t>He/she has autism</t>
+  </si>
+  <si>
+    <t>Paraplegic</t>
+  </si>
+  <si>
+    <t>has paraplegia</t>
   </si>
 </sst>
 </file>
@@ -482,20 +512,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6858CDCC-8F19-4C26-BB84-3C886140036A}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -574,10 +612,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09836E84-368E-489C-9D89-DF2EE8B16D2B}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,6 +664,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -679,20 +725,28 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CA873D-6197-48F6-A494-2FF335502137}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -871,10 +925,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B164AC79-ACD3-4710-934B-FB8241A3324F}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -893,6 +947,22 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE90B0CB-4A82-4A75-95AE-F3C98AA6F040}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1035,6 +1105,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divek\Documents\GitHub\Inclusive-Language-using-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8934DAC2-5F3E-44EA-9565-EAE4B9152251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D89EA6D-3791-4878-8306-86A13BC74A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="15" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="206">
   <si>
     <t>KEY</t>
   </si>
@@ -116,9 +116,6 @@
     <t>meddler in the middle</t>
   </si>
   <si>
-    <t>man in the middle</t>
-  </si>
-  <si>
     <t>Waiter</t>
   </si>
   <si>
@@ -147,13 +144,544 @@
   </si>
   <si>
     <t>has paraplegia</t>
+  </si>
+  <si>
+    <t>blocked days</t>
+  </si>
+  <si>
+    <t>restricted days</t>
+  </si>
+  <si>
+    <t>closed box/closed system</t>
+  </si>
+  <si>
+    <t>open box/open system</t>
+  </si>
+  <si>
+    <t>source/main/primary</t>
+  </si>
+  <si>
+    <t>Scrum master</t>
+  </si>
+  <si>
+    <t>Slave</t>
+  </si>
+  <si>
+    <t>Scrum leader/Agile lead</t>
+  </si>
+  <si>
+    <t>Replica/Secondary/Child</t>
+  </si>
+  <si>
+    <t>Tribal knowledge</t>
+  </si>
+  <si>
+    <t>Institutional knowledge/organizational knowledge</t>
+  </si>
+  <si>
+    <t>Brown bags</t>
+  </si>
+  <si>
+    <t>Blackbox</t>
+  </si>
+  <si>
+    <t>Lunch and learn</t>
+  </si>
+  <si>
+    <t>Cakewalk</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master </t>
+  </si>
+  <si>
+    <t>Man in the middle</t>
+  </si>
+  <si>
+    <t>Minority</t>
+  </si>
+  <si>
+    <t>Native American/ African American/ people of color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninja </t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Spirit animal</t>
+  </si>
+  <si>
+    <t>Kindred spirit/role model</t>
+  </si>
+  <si>
+    <t>Totem Pole</t>
+  </si>
+  <si>
+    <t>Hierarchy</t>
+  </si>
+  <si>
+    <t>Blind to the truth</t>
+  </si>
+  <si>
+    <t>Imperceptive</t>
+  </si>
+  <si>
+    <t>Blind eye to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignorant </t>
+  </si>
+  <si>
+    <t>Blind spot</t>
+  </si>
+  <si>
+    <t>Uneducated/insensitive/dense</t>
+  </si>
+  <si>
+    <t>Crazy</t>
+  </si>
+  <si>
+    <t>Insane</t>
+  </si>
+  <si>
+    <t>Cripple(s)</t>
+  </si>
+  <si>
+    <t>slow(s) down/hinders/prevents</t>
+  </si>
+  <si>
+    <t>Dumb</t>
+  </si>
+  <si>
+    <t>Clueless</t>
+  </si>
+  <si>
+    <t>Dumb-down</t>
+  </si>
+  <si>
+    <t>Uninformed/ignorant</t>
+  </si>
+  <si>
+    <t>Dumb terminal</t>
+  </si>
+  <si>
+    <t>Computer terminal/ Thin client</t>
+  </si>
+  <si>
+    <t>Lame</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Non-disabled person/person without disabilities</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackout days </t>
+  </si>
+  <si>
+    <t>Blackout dates</t>
+  </si>
+  <si>
+    <t>Black days</t>
+  </si>
+  <si>
+    <t>Gray days</t>
+  </si>
+  <si>
+    <t>Sanity check</t>
+  </si>
+  <si>
+    <t>quick check/ confidence check</t>
+  </si>
+  <si>
+    <t>Gray beard</t>
+  </si>
+  <si>
+    <t>experienced person/knowledgeable person</t>
+  </si>
+  <si>
+    <t>He or she</t>
+  </si>
+  <si>
+    <t>He and she</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His and her </t>
+  </si>
+  <si>
+    <t>His or Her</t>
+  </si>
+  <si>
+    <t>They/them/ theirs</t>
+  </si>
+  <si>
+    <t>Freshman</t>
+  </si>
+  <si>
+    <t>Freshmen</t>
+  </si>
+  <si>
+    <t>First year student</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>Maintenance/ cleanup/overview</t>
+  </si>
+  <si>
+    <t>Manpower</t>
+  </si>
+  <si>
+    <t>Workforce/ human effort</t>
+  </si>
+  <si>
+    <t>Preferred pronouns</t>
+  </si>
+  <si>
+    <t>pronouns/ personal pronouns</t>
+  </si>
+  <si>
+    <t>Ladies</t>
+  </si>
+  <si>
+    <t>women/folks</t>
+  </si>
+  <si>
+    <t>Mankind</t>
+  </si>
+  <si>
+    <t>Humankind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexual preference </t>
+  </si>
+  <si>
+    <t>Sexual orientation</t>
+  </si>
+  <si>
+    <t>Gay</t>
+  </si>
+  <si>
+    <t>LGBTQIA+</t>
+  </si>
+  <si>
+    <t>Blind</t>
+  </si>
+  <si>
+    <t>people who are blind</t>
+  </si>
+  <si>
+    <t>Best man for the job</t>
+  </si>
+  <si>
+    <t>Best person for the job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tranny </t>
+  </si>
+  <si>
+    <t>Tranvestite</t>
+  </si>
+  <si>
+    <t>Transgender person</t>
+  </si>
+  <si>
+    <t>Trans person</t>
+  </si>
+  <si>
+    <t>Homos</t>
+  </si>
+  <si>
+    <t>Homosexuals</t>
+  </si>
+  <si>
+    <t>Coloured people</t>
+  </si>
+  <si>
+    <t>other racial groups</t>
+  </si>
+  <si>
+    <t>Foreigners</t>
+  </si>
+  <si>
+    <t>people from overseas</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>socioeconomic status</t>
+  </si>
+  <si>
+    <t>Mentally ill</t>
+  </si>
+  <si>
+    <t>has a mental illness</t>
+  </si>
+  <si>
+    <t>Substance abuse disorder</t>
+  </si>
+  <si>
+    <t>Substance use disorder</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>people with low income</t>
+  </si>
+  <si>
+    <t>Victims</t>
+  </si>
+  <si>
+    <t>Survivors</t>
+  </si>
+  <si>
+    <t>Alcoholics</t>
+  </si>
+  <si>
+    <t>Deaf and dumb</t>
+  </si>
+  <si>
+    <t>person who is deaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has a birth defect </t>
+  </si>
+  <si>
+    <t>has a congenital disability</t>
+  </si>
+  <si>
+    <t>Whitebox</t>
+  </si>
+  <si>
+    <t>Wheelchair bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person who uses wheelchair </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retarted </t>
+  </si>
+  <si>
+    <t>person with intellectual,cognitive,developmental disability</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Idiot</t>
+  </si>
+  <si>
+    <t>Moron</t>
+  </si>
+  <si>
+    <t>person with psychiatric disability/ mental illness</t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>Psycho</t>
+  </si>
+  <si>
+    <t>Hacker</t>
+  </si>
+  <si>
+    <t>engineer/developer</t>
+  </si>
+  <si>
+    <t>Handicap</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Mom test</t>
+  </si>
+  <si>
+    <t>user testing</t>
+  </si>
+  <si>
+    <t>Girlfriend test</t>
+  </si>
+  <si>
+    <t>User testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addict </t>
+  </si>
+  <si>
+    <t>someone struggling with addiction</t>
+  </si>
+  <si>
+    <t>someone with an alcohol problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance abuse </t>
+  </si>
+  <si>
+    <t>Drug lord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person who was arrested for selling drugs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ex-con </t>
+  </si>
+  <si>
+    <t>people formerly convicted</t>
+  </si>
+  <si>
+    <t>Felon</t>
+  </si>
+  <si>
+    <t>people with criminal convictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handicapped </t>
+  </si>
+  <si>
+    <t>Person with diability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disabled person </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crippled </t>
+  </si>
+  <si>
+    <t>Him</t>
+  </si>
+  <si>
+    <t>Her</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>She</t>
+  </si>
+  <si>
+    <t>They</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>person/individual</t>
+  </si>
+  <si>
+    <t>Stewardess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flight attendant </t>
+  </si>
+  <si>
+    <t>Actress</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Congressman</t>
+  </si>
+  <si>
+    <t>Congressional representative / legislator</t>
+  </si>
+  <si>
+    <t>Transgender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex-change </t>
+  </si>
+  <si>
+    <t>Sex reassignment or gender affirming surgery</t>
+  </si>
+  <si>
+    <t>Mailman</t>
+  </si>
+  <si>
+    <t>Mail or letter carrier</t>
+  </si>
+  <si>
+    <t>Sufferer</t>
+  </si>
+  <si>
+    <t>Survivor</t>
+  </si>
+  <si>
+    <t>Suffering from</t>
+  </si>
+  <si>
+    <t>living with/being treated for</t>
+  </si>
+  <si>
+    <t>Diabetic</t>
+  </si>
+  <si>
+    <t>person with diabetes</t>
+  </si>
+  <si>
+    <t>Albino</t>
+  </si>
+  <si>
+    <t>person with albinism</t>
+  </si>
+  <si>
+    <t>Dwarf</t>
+  </si>
+  <si>
+    <t>someone with dwarfism/short stature</t>
+  </si>
+  <si>
+    <t>Bipolar person</t>
+  </si>
+  <si>
+    <t>someone with bipolar disorder</t>
+  </si>
+  <si>
+    <t>Inner city</t>
+  </si>
+  <si>
+    <t>Under-resourced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disinvested </t>
+  </si>
+  <si>
+    <t>Low-opportunity</t>
+  </si>
+  <si>
+    <t>Homeless people</t>
+  </si>
+  <si>
+    <t>people experiencing homelessness</t>
+  </si>
+  <si>
+    <t>Distressed neighbourhoods</t>
+  </si>
+  <si>
+    <t>neighbourhoods with access to fewer opportunities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +700,13 @@
       <color rgb="FF171923"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,10 +729,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,13 +1048,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6858CDCC-8F19-4C26-BB84-3C886140036A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -530,10 +1069,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -569,7 +1140,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C043F532-906E-4302-9FB6-256AACBA4087}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,6 +1176,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -612,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09836E84-368E-489C-9D89-DF2EE8B16D2B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -658,7 +1245,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -666,10 +1253,82 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -679,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F643455A-BF54-40F7-A3F8-8EAD8E02FB93}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,6 +1352,30 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -725,13 +1408,16 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CA873D-6197-48F6-A494-2FF335502137}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -743,10 +1429,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -779,13 +1489,16 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A41B37-ED50-45C6-BF00-207595DE8652}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -795,6 +1508,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -802,13 +1523,16 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A034C685-69FA-4487-B3BF-C7BF8E932720}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -818,6 +1542,102 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -825,13 +1645,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AD149B-B65F-49C4-AF01-021394194CC2}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -849,6 +1672,94 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -856,13 +1767,16 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089252DC-DCE6-4CB7-BBC3-520320D586D5}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -870,6 +1784,46 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -902,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE7B48C-6A57-4A65-BCF2-21AE9AC194C5}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -918,6 +1872,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -925,13 +1887,16 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B164AC79-ACD3-4710-934B-FB8241A3324F}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -951,18 +1916,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1041,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5D6BBD-6DA2-42DF-A06F-6A55D030943B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1069,6 +2050,62 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1077,15 +2114,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE90B0CB-4A82-4A75-95AE-F3C98AA6F040}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
     <col min="2" max="2" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1107,10 +2144,90 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1120,52 +2237,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA704C1C-49E1-499F-BBE3-96E07D259E79}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C20B180-3B4C-4969-A7B5-2323B0CBFDFD}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2B4D34-5DD5-462B-BE1D-EDB156A99AAB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1183,11 +2254,70 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C20B180-3B4C-4969-A7B5-2323B0CBFDFD}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1195,12 +2325,240 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2B4D34-5DD5-462B-BE1D-EDB156A99AAB}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1954444E-13D8-4952-9766-0067571A9DEC}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF830CD-7188-43CF-8442-1E032F6FA383}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1213,27 +2571,28 @@
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF830CD-7188-43CF-8442-1E032F6FA383}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divek\Documents\GitHub\Inclusive-Language-using-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D89EA6D-3791-4878-8306-86A13BC74A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925F6DFB-BD03-43A6-8358-282C55C2F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="18" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="331">
   <si>
     <t>KEY</t>
   </si>
@@ -675,6 +675,381 @@
   </si>
   <si>
     <t>neighbourhoods with access to fewer opportunities</t>
+  </si>
+  <si>
+    <t>Grandfathered</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>Mob Programming</t>
+  </si>
+  <si>
+    <t>Team/swarm</t>
+  </si>
+  <si>
+    <t>Native</t>
+  </si>
+  <si>
+    <t>Built-in</t>
+  </si>
+  <si>
+    <t>Red Team</t>
+  </si>
+  <si>
+    <t>Cyber Offense</t>
+  </si>
+  <si>
+    <t>Webmaster</t>
+  </si>
+  <si>
+    <t>Web product owner</t>
+  </si>
+  <si>
+    <t>Whitespace</t>
+  </si>
+  <si>
+    <t>Empty space/blank</t>
+  </si>
+  <si>
+    <t>White Team</t>
+  </si>
+  <si>
+    <t>Cyber exercise cell</t>
+  </si>
+  <si>
+    <t>Yellow team</t>
+  </si>
+  <si>
+    <t>DevSecOps Team</t>
+  </si>
+  <si>
+    <t>Aboriginal</t>
+  </si>
+  <si>
+    <t>Indigenous people</t>
+  </si>
+  <si>
+    <t>Abort</t>
+  </si>
+  <si>
+    <t>Cancel progress/end progress</t>
+  </si>
+  <si>
+    <t>Blackhat hacker</t>
+  </si>
+  <si>
+    <t>Unethical hacker</t>
+  </si>
+  <si>
+    <t>Whitehat hacker</t>
+  </si>
+  <si>
+    <t>ethical hacker</t>
+  </si>
+  <si>
+    <t>Master Branch</t>
+  </si>
+  <si>
+    <t>main branch</t>
+  </si>
+  <si>
+    <t>Grayhat hacker</t>
+  </si>
+  <si>
+    <t>hacktivist</t>
+  </si>
+  <si>
+    <t>Able-bodied</t>
+  </si>
+  <si>
+    <t>without disability</t>
+  </si>
+  <si>
+    <t>Impaired</t>
+  </si>
+  <si>
+    <t>person with visual impairment</t>
+  </si>
+  <si>
+    <t>Maimed</t>
+  </si>
+  <si>
+    <t>person with a prosthetic limb</t>
+  </si>
+  <si>
+    <t>missing a limb</t>
+  </si>
+  <si>
+    <t>person without a limb</t>
+  </si>
+  <si>
+    <t>Slow-learner</t>
+  </si>
+  <si>
+    <t>has cognitive disabilities</t>
+  </si>
+  <si>
+    <t>Abnormal</t>
+  </si>
+  <si>
+    <t>atypical</t>
+  </si>
+  <si>
+    <t>Digital Native</t>
+  </si>
+  <si>
+    <t>person who grew up with readily available computer technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Immigrant </t>
+  </si>
+  <si>
+    <t>person who did not grow up with readily available computer technology</t>
+  </si>
+  <si>
+    <t>Grandmother Test</t>
+  </si>
+  <si>
+    <t>Grandfather Test</t>
+  </si>
+  <si>
+    <t>Non-subject matter expert test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circle the wagons </t>
+  </si>
+  <si>
+    <t>come together/regroup/focus</t>
+  </si>
+  <si>
+    <t>Demilitarized zone</t>
+  </si>
+  <si>
+    <t>perimeter network</t>
+  </si>
+  <si>
+    <t>First-class citizen</t>
+  </si>
+  <si>
+    <t>core concept/top level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hang </t>
+  </si>
+  <si>
+    <t>Stop responding</t>
+  </si>
+  <si>
+    <t>Kill(process)</t>
+  </si>
+  <si>
+    <t>forcefully halt/stop</t>
+  </si>
+  <si>
+    <t>Kill two birds with one stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feed two birds with one scone </t>
+  </si>
+  <si>
+    <t>Low man on the totem pole</t>
+  </si>
+  <si>
+    <t>Junior employee/newest team member</t>
+  </si>
+  <si>
+    <t>Native-feature</t>
+  </si>
+  <si>
+    <t>Built-in feature</t>
+  </si>
+  <si>
+    <t>Nuke</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Off the reservation</t>
+  </si>
+  <si>
+    <t>Against the grain/counterproductive</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Lead/Manager</t>
+  </si>
+  <si>
+    <t>Pow-wow</t>
+  </si>
+  <si>
+    <t>meeting/conference</t>
+  </si>
+  <si>
+    <t>Rule of thumb</t>
+  </si>
+  <si>
+    <t>unwritten rule/guideline</t>
+  </si>
+  <si>
+    <t>Tribe</t>
+  </si>
+  <si>
+    <t>Group/department</t>
+  </si>
+  <si>
+    <t>Sister organization</t>
+  </si>
+  <si>
+    <t>associated organization/partner organization</t>
+  </si>
+  <si>
+    <t>Right-hand man</t>
+  </si>
+  <si>
+    <t>Indispensable/counterpart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female connector </t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male connector </t>
+  </si>
+  <si>
+    <t>plug</t>
+  </si>
+  <si>
+    <t>Genderless connector</t>
+  </si>
+  <si>
+    <t>connector</t>
+  </si>
+  <si>
+    <t>Blind to</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>Deaf to</t>
+  </si>
+  <si>
+    <t>Tone deaf</t>
+  </si>
+  <si>
+    <t>inconsiderate/careless</t>
+  </si>
+  <si>
+    <t>Hermaphrodite</t>
+  </si>
+  <si>
+    <t>Intersex</t>
+  </si>
+  <si>
+    <t>Latinx</t>
+  </si>
+  <si>
+    <t>Latino/Latina</t>
+  </si>
+  <si>
+    <t>Diverse students</t>
+  </si>
+  <si>
+    <t>students from diverse backgrounds</t>
+  </si>
+  <si>
+    <t>Non-white</t>
+  </si>
+  <si>
+    <t>Person of color</t>
+  </si>
+  <si>
+    <t>Mixed-race</t>
+  </si>
+  <si>
+    <t>Multiracial/Multiethnic</t>
+  </si>
+  <si>
+    <t>Oriental</t>
+  </si>
+  <si>
+    <t>Asain</t>
+  </si>
+  <si>
+    <t>Third-world country</t>
+  </si>
+  <si>
+    <t>emerging economy</t>
+  </si>
+  <si>
+    <t>Developing country</t>
+  </si>
+  <si>
+    <t>Elderly</t>
+  </si>
+  <si>
+    <t>older/experienced</t>
+  </si>
+  <si>
+    <t>Senior citizen</t>
+  </si>
+  <si>
+    <t>Immature</t>
+  </si>
+  <si>
+    <t>Youth/young person</t>
+  </si>
+  <si>
+    <t>Childish</t>
+  </si>
+  <si>
+    <t>Penetration test</t>
+  </si>
+  <si>
+    <t>security assessment test</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Salesman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales representative </t>
+  </si>
+  <si>
+    <t>Manmade</t>
+  </si>
+  <si>
+    <t>Synthetic/manufactured</t>
+  </si>
+  <si>
+    <t>Niece</t>
+  </si>
+  <si>
+    <t>Nephew</t>
+  </si>
+  <si>
+    <t>Nibling</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>sibling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sister </t>
+  </si>
+  <si>
+    <t>Sibling</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6858CDCC-8F19-4C26-BB84-3C886140036A}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1105,6 +1480,38 @@
       </c>
       <c r="B6" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1137,13 +1544,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8141D833-7611-4242-9B00-E47F9E6D638A}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1151,6 +1561,22 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1160,13 +1586,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C043F532-906E-4302-9FB6-256AACBA4087}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1190,6 +1619,22 @@
       </c>
       <c r="B3" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -1199,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09836E84-368E-489C-9D89-DF2EE8B16D2B}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1331,6 +1776,62 @@
         <v>185</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" t="s">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1338,13 +1839,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F643455A-BF54-40F7-A3F8-8EAD8E02FB93}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1376,6 +1880,54 @@
       </c>
       <c r="B4" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -1385,13 +1937,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC690B8-F8B6-4D3D-AF5F-D7A362CAE16A}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1399,6 +1954,30 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -1408,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CA873D-6197-48F6-A494-2FF335502137}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1457,6 +2036,22 @@
       </c>
       <c r="B5" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -1489,15 +2084,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A41B37-ED50-45C6-BF00-207595DE8652}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1514,6 +2109,30 @@
       </c>
       <c r="B2" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -1523,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A034C685-69FA-4487-B3BF-C7BF8E932720}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1638,6 +2257,46 @@
         <v>189</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" t="s">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1645,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AD149B-B65F-49C4-AF01-021394194CC2}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1760,6 +2419,30 @@
         <v>197</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" t="s">
+        <v>328</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1767,15 +2450,15 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089252DC-DCE6-4CB7-BBC3-520320D586D5}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1824,6 +2507,30 @@
       </c>
       <c r="B6" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -1859,10 +2566,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1887,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B164AC79-ACD3-4710-934B-FB8241A3324F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1944,6 +2654,38 @@
       </c>
       <c r="B6" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -1976,13 +2718,16 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9950521-417F-4825-B72E-51CA5AFAC1B3}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1990,6 +2735,14 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2022,10 +2775,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5D6BBD-6DA2-42DF-A06F-6A55D030943B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2106,6 +2859,22 @@
         <v>180</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2114,10 +2883,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE90B0CB-4A82-4A75-95AE-F3C98AA6F040}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2230,6 +2999,54 @@
         <v>205</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2237,10 +3054,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA704C1C-49E1-499F-BBE3-96E07D259E79}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2259,6 +3076,14 @@
       </c>
       <c r="B2" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2269,15 +3094,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C20B180-3B4C-4969-A7B5-2323B0CBFDFD}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -2318,6 +3143,22 @@
       </c>
       <c r="B5" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2327,15 +3168,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2B4D34-5DD5-462B-BE1D-EDB156A99AAB}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -2384,6 +3225,46 @@
       </c>
       <c r="B6" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2393,10 +3274,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1954444E-13D8-4952-9766-0067571A9DEC}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2548,6 +3429,22 @@
         <v>203</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2555,13 +3452,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF830CD-7188-43CF-8442-1E032F6FA383}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2595,6 +3495,30 @@
         <v>199</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divek\Documents\GitHub\Inclusive-Language-using-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925F6DFB-BD03-43A6-8358-282C55C2F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DA4E3B-5409-40E5-82D9-A9EC00D19FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="18" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <sheet name="Y" sheetId="25" r:id="rId25"/>
     <sheet name="Z" sheetId="26" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,6 +50,7 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="476">
   <si>
     <t>KEY</t>
   </si>
@@ -428,9 +429,6 @@
     <t>Mentally ill</t>
   </si>
   <si>
-    <t>has a mental illness</t>
-  </si>
-  <si>
     <t>Substance abuse disorder</t>
   </si>
   <si>
@@ -980,9 +978,6 @@
     <t>Oriental</t>
   </si>
   <si>
-    <t>Asain</t>
-  </si>
-  <si>
     <t>Third-world country</t>
   </si>
   <si>
@@ -1022,9 +1017,6 @@
     <t>Salesman</t>
   </si>
   <si>
-    <t xml:space="preserve">sales representative </t>
-  </si>
-  <si>
     <t>Manmade</t>
   </si>
   <si>
@@ -1050,6 +1042,450 @@
   </si>
   <si>
     <t>Sibling</t>
+  </si>
+  <si>
+    <t>Female Engineer</t>
+  </si>
+  <si>
+    <t>a woman on the engineering team</t>
+  </si>
+  <si>
+    <t>Abusive Relationship</t>
+  </si>
+  <si>
+    <t>relationship with a person who is abusive</t>
+  </si>
+  <si>
+    <t>Prostitute</t>
+  </si>
+  <si>
+    <t>person who engages in sex work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prisoner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">person who is incarcerated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convict </t>
+  </si>
+  <si>
+    <t>person who has been incarcerated</t>
+  </si>
+  <si>
+    <t>Special needs</t>
+  </si>
+  <si>
+    <t>person with a disability</t>
+  </si>
+  <si>
+    <t>Physically challenged</t>
+  </si>
+  <si>
+    <t>person who has a disability</t>
+  </si>
+  <si>
+    <t>Mentally challenged</t>
+  </si>
+  <si>
+    <t>person with intellectual disability</t>
+  </si>
+  <si>
+    <t>Mentally retarted</t>
+  </si>
+  <si>
+    <t>person with a mental illness</t>
+  </si>
+  <si>
+    <t>Visually-challenged person</t>
+  </si>
+  <si>
+    <t>person who is blind/visually impaired person</t>
+  </si>
+  <si>
+    <t>Sight-challenged person</t>
+  </si>
+  <si>
+    <t>AIDS Victim</t>
+  </si>
+  <si>
+    <t>person with AIDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain damaged </t>
+  </si>
+  <si>
+    <t>person with a traumatic brain injury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meth addict </t>
+  </si>
+  <si>
+    <t>person with substance use disorder</t>
+  </si>
+  <si>
+    <t>Birth Sex</t>
+  </si>
+  <si>
+    <t>assigned sex</t>
+  </si>
+  <si>
+    <t>Natal sex</t>
+  </si>
+  <si>
+    <t>sex assigned at birth</t>
+  </si>
+  <si>
+    <t>Low-class people</t>
+  </si>
+  <si>
+    <t>people whose income are below the federal poverty threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Killing it </t>
+  </si>
+  <si>
+    <t>great job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a shot at </t>
+  </si>
+  <si>
+    <t>give it  a go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull the trigger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go off the reservation </t>
+  </si>
+  <si>
+    <t>disagree with the group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commited suicide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">died by suicide </t>
+  </si>
+  <si>
+    <t>Completed suicide</t>
+  </si>
+  <si>
+    <t>suicided</t>
+  </si>
+  <si>
+    <t>Child prostitute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">child who has been trafficked </t>
+  </si>
+  <si>
+    <t>Nonconsensual sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rape </t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Caucasian</t>
+  </si>
+  <si>
+    <t>European american</t>
+  </si>
+  <si>
+    <t>Indigenous people/Native American</t>
+  </si>
+  <si>
+    <t>Eskimos</t>
+  </si>
+  <si>
+    <t>Inuit</t>
+  </si>
+  <si>
+    <t>Tradesman</t>
+  </si>
+  <si>
+    <t>Tradesperson</t>
+  </si>
+  <si>
+    <t>Manned</t>
+  </si>
+  <si>
+    <t>Staffed</t>
+  </si>
+  <si>
+    <t>Businessman</t>
+  </si>
+  <si>
+    <t>Businesswoman</t>
+  </si>
+  <si>
+    <t>Business executive</t>
+  </si>
+  <si>
+    <t>Birth defect</t>
+  </si>
+  <si>
+    <t>person born with a disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congenital defect </t>
+  </si>
+  <si>
+    <t>person who has a congenital disability</t>
+  </si>
+  <si>
+    <t>Birth deformity</t>
+  </si>
+  <si>
+    <t>Confined to a wheelchair</t>
+  </si>
+  <si>
+    <t>person who uses a wheelchair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard of hearing </t>
+  </si>
+  <si>
+    <t>person who is hard of hearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hearing impaired </t>
+  </si>
+  <si>
+    <t>Deaf-mute</t>
+  </si>
+  <si>
+    <t>Epileptic</t>
+  </si>
+  <si>
+    <t>person who has epilepsy</t>
+  </si>
+  <si>
+    <t>Handicapped parking</t>
+  </si>
+  <si>
+    <t>accessible parking</t>
+  </si>
+  <si>
+    <t>Handicapped bathrooms</t>
+  </si>
+  <si>
+    <t>accessible bathrooms</t>
+  </si>
+  <si>
+    <t>Fit,attack,spell</t>
+  </si>
+  <si>
+    <t>Seizure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inarticulate </t>
+  </si>
+  <si>
+    <t>Incoherent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person who has a speech disorder </t>
+  </si>
+  <si>
+    <t>person who has a speech disability</t>
+  </si>
+  <si>
+    <t>Neurotic</t>
+  </si>
+  <si>
+    <t>person with a mental-health disability</t>
+  </si>
+  <si>
+    <t>Dyslexic</t>
+  </si>
+  <si>
+    <t>person with a learning disability</t>
+  </si>
+  <si>
+    <t>Learning disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning disordered </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spastic </t>
+  </si>
+  <si>
+    <t>person who has spasms</t>
+  </si>
+  <si>
+    <t>Suffers from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stricken with </t>
+  </si>
+  <si>
+    <t>afflicted by</t>
+  </si>
+  <si>
+    <t>Victim of cerebral palsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person who has cerebral palsy/person with a mobility impairment </t>
+  </si>
+  <si>
+    <t>Manning the office</t>
+  </si>
+  <si>
+    <t>staffing the office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forefathers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancestors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working hours </t>
+  </si>
+  <si>
+    <t xml:space="preserve">man hours </t>
+  </si>
+  <si>
+    <t>Policeman</t>
+  </si>
+  <si>
+    <t>Policewoman</t>
+  </si>
+  <si>
+    <t>Police officer</t>
+  </si>
+  <si>
+    <t>Spokesman</t>
+  </si>
+  <si>
+    <t>Spokesperson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternity leave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parental leave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paternal leave </t>
+  </si>
+  <si>
+    <t>Parental leave/Parental time off</t>
+  </si>
+  <si>
+    <t>Landlord</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>Boyfriend</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>Girlfriend</t>
+  </si>
+  <si>
+    <t>sales representative /salesperson</t>
+  </si>
+  <si>
+    <t>Maiden name</t>
+  </si>
+  <si>
+    <t>family name</t>
+  </si>
+  <si>
+    <t>Fireman</t>
+  </si>
+  <si>
+    <t>firefighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husband </t>
+  </si>
+  <si>
+    <t xml:space="preserve">spouse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wife </t>
+  </si>
+  <si>
+    <t>Bad Guy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspect </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaning lady </t>
+  </si>
+  <si>
+    <t>Housekeeper</t>
+  </si>
+  <si>
+    <t>Garbage Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanitation engineer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male nurse </t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Mansplaining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patronizing </t>
+  </si>
+  <si>
+    <t>Average man</t>
+  </si>
+  <si>
+    <t>average person/ordinary person</t>
+  </si>
+  <si>
+    <t>Layman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layperson </t>
+  </si>
+  <si>
+    <t>To man</t>
+  </si>
+  <si>
+    <t>to operate/to staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workmanlike </t>
+  </si>
+  <si>
+    <t>skillfull</t>
+  </si>
+  <si>
+    <t>Grooming</t>
+  </si>
+  <si>
+    <t>Refining</t>
+  </si>
+  <si>
+    <t>Straight</t>
+  </si>
+  <si>
+    <t>non-LGBTQ</t>
   </si>
 </sst>
 </file>
@@ -1423,15 +1859,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6858CDCC-8F19-4C26-BB84-3C886140036A}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1452,66 +1888,98 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
         <v>154</v>
-      </c>
-      <c r="B4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
         <v>177</v>
-      </c>
-      <c r="B5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
         <v>192</v>
-      </c>
-      <c r="B6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" t="s">
         <v>222</v>
-      </c>
-      <c r="B7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
         <v>224</v>
-      </c>
-      <c r="B8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" t="s">
         <v>234</v>
-      </c>
-      <c r="B9" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" t="s">
         <v>244</v>
       </c>
-      <c r="B10" t="s">
-        <v>245</v>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B14" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -1544,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8141D833-7611-4242-9B00-E47F9E6D638A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1565,18 +2033,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
         <v>261</v>
-      </c>
-      <c r="B2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
         <v>263</v>
       </c>
-      <c r="B3" t="s">
-        <v>264</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -1586,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C043F532-906E-4302-9FB6-256AACBA4087}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1623,18 +2099,58 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
         <v>265</v>
-      </c>
-      <c r="B4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" t="s">
         <v>298</v>
       </c>
-      <c r="B5" t="s">
-        <v>299</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B10" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -1644,10 +2160,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09836E84-368E-489C-9D89-DF2EE8B16D2B}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1741,95 +2257,167 @@
         <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
         <v>150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" t="s">
         <v>173</v>
-      </c>
-      <c r="B14" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
         <v>184</v>
-      </c>
-      <c r="B15" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" t="s">
         <v>208</v>
-      </c>
-      <c r="B16" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" t="s">
         <v>230</v>
-      </c>
-      <c r="B17" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" t="s">
         <v>238</v>
-      </c>
-      <c r="B18" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" t="s">
         <v>240</v>
-      </c>
-      <c r="B19" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" t="s">
         <v>287</v>
-      </c>
-      <c r="B20" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" t="s">
         <v>304</v>
-      </c>
-      <c r="B21" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B22" t="s">
-        <v>323</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>385</v>
+      </c>
+      <c r="B26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>426</v>
+      </c>
+      <c r="B27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>437</v>
+      </c>
+      <c r="B28" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>447</v>
+      </c>
+      <c r="B29" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>460</v>
+      </c>
+      <c r="B30" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>462</v>
+      </c>
+      <c r="B31" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -1839,15 +2427,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F643455A-BF54-40F7-A3F8-8EAD8E02FB93}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1876,62 +2464,87 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" t="s">
         <v>210</v>
-      </c>
-      <c r="B5" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
         <v>267</v>
-      </c>
-      <c r="B6" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" t="s">
         <v>269</v>
-      </c>
-      <c r="B7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" t="s">
         <v>302</v>
-      </c>
-      <c r="B8" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>413</v>
+      </c>
+      <c r="B13" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1940,7 +2553,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1958,26 +2571,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" t="s">
         <v>271</v>
-      </c>
-      <c r="B2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" t="s">
         <v>273</v>
-      </c>
-      <c r="B3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -1987,15 +2600,15 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CA873D-6197-48F6-A494-2FF335502137}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -2024,34 +2637,90 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
         <v>126</v>
-      </c>
-      <c r="B4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" t="s">
         <v>275</v>
-      </c>
-      <c r="B6" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B14" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -2105,34 +2774,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
         <v>138</v>
-      </c>
-      <c r="B2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
         <v>212</v>
-      </c>
-      <c r="B3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" t="s">
         <v>277</v>
-      </c>
-      <c r="B4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" t="s">
         <v>283</v>
-      </c>
-      <c r="B5" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2142,15 +2811,15 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A034C685-69FA-4487-B3BF-C7BF8E932720}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -2203,98 +2872,154 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
         <v>124</v>
-      </c>
-      <c r="B7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" t="s">
         <v>175</v>
-      </c>
-      <c r="B10" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
         <v>182</v>
-      </c>
-      <c r="B11" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" t="s">
         <v>186</v>
-      </c>
-      <c r="B12" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" t="s">
         <v>188</v>
-      </c>
-      <c r="B13" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" t="s">
         <v>242</v>
-      </c>
-      <c r="B14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" t="s">
         <v>281</v>
-      </c>
-      <c r="B15" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B17" t="s">
-        <v>321</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>422</v>
+      </c>
+      <c r="B23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>435</v>
+      </c>
+      <c r="B24" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>474</v>
+      </c>
+      <c r="B25" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -2304,10 +3029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AD149B-B65F-49C4-AF01-021394194CC2}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2413,34 +3138,98 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
         <v>196</v>
-      </c>
-      <c r="B13" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" t="s">
         <v>226</v>
-      </c>
-      <c r="B14" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" t="s">
         <v>291</v>
-      </c>
-      <c r="B15" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>394</v>
+      </c>
+      <c r="B22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>443</v>
+      </c>
+      <c r="B23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>454</v>
+      </c>
+      <c r="B24" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -2450,10 +3239,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089252DC-DCE6-4CB7-BBC3-520320D586D5}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2503,7 +3292,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
         <v>112</v>
@@ -2511,26 +3300,50 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" t="s">
         <v>279</v>
-      </c>
-      <c r="B7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" t="s">
         <v>294</v>
-      </c>
-      <c r="B8" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B12" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -2563,15 +3376,15 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE7B48C-6A57-4A65-BCF2-21AE9AC194C5}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -2584,10 +3397,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" t="s">
-        <v>129</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -2597,10 +3426,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B164AC79-ACD3-4710-934B-FB8241A3324F}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2642,7 +3471,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -2650,42 +3479,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
         <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" t="s">
         <v>214</v>
-      </c>
-      <c r="B7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" t="s">
         <v>216</v>
-      </c>
-      <c r="B8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" t="s">
         <v>218</v>
-      </c>
-      <c r="B9" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
         <v>228</v>
       </c>
-      <c r="B10" t="s">
-        <v>229</v>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B13" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -2739,10 +3592,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" t="s">
         <v>220</v>
-      </c>
-      <c r="B2" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2775,15 +3628,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5D6BBD-6DA2-42DF-A06F-6A55D030943B}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
     <col min="2" max="2" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2816,7 +3669,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2845,34 +3698,98 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
         <v>179</v>
-      </c>
-      <c r="B9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" t="s">
         <v>253</v>
-      </c>
-      <c r="B10" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>456</v>
+      </c>
+      <c r="B19" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2883,10 +3800,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE90B0CB-4A82-4A75-95AE-F3C98AA6F040}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2945,106 +3862,130 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
         <v>131</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
         <v>158</v>
-      </c>
-      <c r="B8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" t="s">
         <v>190</v>
-      </c>
-      <c r="B10" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" t="s">
         <v>194</v>
-      </c>
-      <c r="B11" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
         <v>200</v>
-      </c>
-      <c r="B12" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
         <v>204</v>
-      </c>
-      <c r="B13" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" t="s">
         <v>246</v>
-      </c>
-      <c r="B14" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" t="s">
         <v>248</v>
-      </c>
-      <c r="B15" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" t="s">
         <v>255</v>
-      </c>
-      <c r="B16" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" t="s">
         <v>300</v>
-      </c>
-      <c r="B18" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>400</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>415</v>
+      </c>
+      <c r="B22" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -3054,10 +3995,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA704C1C-49E1-499F-BBE3-96E07D259E79}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3072,18 +4013,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
         <v>160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3094,10 +4051,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C20B180-3B4C-4969-A7B5-2323B0CBFDFD}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3139,26 +4096,58 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
         <v>162</v>
-      </c>
-      <c r="B5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
         <v>257</v>
-      </c>
-      <c r="B6" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" t="s">
         <v>285</v>
       </c>
-      <c r="B7" t="s">
-        <v>286</v>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B11" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3168,10 +4157,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2B4D34-5DD5-462B-BE1D-EDB156A99AAB}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3221,50 +4210,82 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
         <v>152</v>
-      </c>
-      <c r="B6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
         <v>206</v>
-      </c>
-      <c r="B7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
         <v>232</v>
-      </c>
-      <c r="B8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" t="s">
         <v>251</v>
-      </c>
-      <c r="B10" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" t="s">
         <v>289</v>
       </c>
-      <c r="B11" t="s">
-        <v>290</v>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>445</v>
+      </c>
+      <c r="B13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -3274,15 +4295,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1954444E-13D8-4952-9766-0067571A9DEC}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -3359,90 +4380,130 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
         <v>133</v>
-      </c>
-      <c r="B10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
         <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
         <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
         <v>164</v>
-      </c>
-      <c r="B13" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
         <v>171</v>
-      </c>
-      <c r="B16" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
         <v>202</v>
-      </c>
-      <c r="B18" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" t="s">
         <v>259</v>
-      </c>
-      <c r="B19" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" t="s">
         <v>296</v>
       </c>
-      <c r="B20" t="s">
-        <v>297</v>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>399</v>
+      </c>
+      <c r="B22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>403</v>
+      </c>
+      <c r="B23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>405</v>
+      </c>
+      <c r="B24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>451</v>
+      </c>
+      <c r="B25" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -3452,15 +4513,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF830CD-7188-43CF-8442-1E032F6FA383}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -3476,47 +4537,63 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
         <v>198</v>
-      </c>
-      <c r="B4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
         <v>236</v>
-      </c>
-      <c r="B5" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divek\Documents\GitHub\Inclusive-Language-using-Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Inclusive-Language-using-Python\Inclusive-Language-using-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DA4E3B-5409-40E5-82D9-A9EC00D19FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46573077-051C-4EC0-9E80-362CBC9CF924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="12" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <sheet name="Y" sheetId="25" r:id="rId25"/>
     <sheet name="Z" sheetId="26" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="480">
   <si>
     <t>KEY</t>
   </si>
@@ -1486,6 +1486,18 @@
   </si>
   <si>
     <t>non-LGBTQ</t>
+  </si>
+  <si>
+    <t>manhandling</t>
+  </si>
+  <si>
+    <t>manup</t>
+  </si>
+  <si>
+    <t>take the lead</t>
+  </si>
+  <si>
+    <t>drag</t>
   </si>
 </sst>
 </file>
@@ -1861,16 +1873,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6858CDCC-8F19-4C26-BB84-3C886140036A}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1886,7 +1898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -1894,7 +1906,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -1902,7 +1914,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -1910,7 +1922,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -1918,7 +1930,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>221</v>
       </c>
@@ -1926,7 +1938,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>223</v>
       </c>
@@ -1934,7 +1946,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -1942,7 +1954,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>243</v>
       </c>
@@ -1950,7 +1962,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>330</v>
       </c>
@@ -1958,7 +1970,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>349</v>
       </c>
@@ -1966,7 +1978,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>423</v>
       </c>
@@ -1974,7 +1986,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>464</v>
       </c>
@@ -1995,9 +2007,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2018,12 +2030,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -2039,7 +2051,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -2047,7 +2059,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>361</v>
       </c>
@@ -2068,12 +2080,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2089,7 +2101,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2097,7 +2109,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -2105,7 +2117,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>297</v>
       </c>
@@ -2113,7 +2125,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>359</v>
       </c>
@@ -2121,7 +2133,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>417</v>
       </c>
@@ -2129,7 +2141,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>418</v>
       </c>
@@ -2137,7 +2149,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>441</v>
       </c>
@@ -2145,7 +2157,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>466</v>
       </c>
@@ -2160,19 +2172,19 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09836E84-368E-489C-9D89-DF2EE8B16D2B}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2180,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2196,7 +2208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2204,7 +2216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2212,7 +2224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2220,7 +2232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2228,7 +2240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2236,7 +2248,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -2244,7 +2256,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2252,7 +2264,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -2260,7 +2272,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>141</v>
       </c>
@@ -2268,7 +2280,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -2276,7 +2288,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -2284,7 +2296,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -2292,7 +2304,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>207</v>
       </c>
@@ -2300,7 +2312,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>229</v>
       </c>
@@ -2308,7 +2320,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>237</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>239</v>
       </c>
@@ -2324,7 +2336,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>286</v>
       </c>
@@ -2332,7 +2344,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>303</v>
       </c>
@@ -2340,7 +2352,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>319</v>
       </c>
@@ -2348,7 +2360,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>342</v>
       </c>
@@ -2356,7 +2368,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>344</v>
       </c>
@@ -2364,7 +2376,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>353</v>
       </c>
@@ -2372,7 +2384,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>385</v>
       </c>
@@ -2380,7 +2392,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>426</v>
       </c>
@@ -2388,7 +2400,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>437</v>
       </c>
@@ -2396,7 +2408,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>447</v>
       </c>
@@ -2404,7 +2416,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>460</v>
       </c>
@@ -2412,12 +2424,28 @@
         <v>461</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>462</v>
       </c>
       <c r="B31" t="s">
         <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>476</v>
+      </c>
+      <c r="B32" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>477</v>
+      </c>
+      <c r="B33" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -2433,12 +2461,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2446,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -2454,7 +2482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -2462,7 +2490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -2470,7 +2498,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -2478,7 +2506,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -2486,7 +2514,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -2494,7 +2522,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>301</v>
       </c>
@@ -2502,7 +2530,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -2510,7 +2538,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>322</v>
       </c>
@@ -2518,7 +2546,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>357</v>
       </c>
@@ -2526,7 +2554,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>375</v>
       </c>
@@ -2534,7 +2562,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>413</v>
       </c>
@@ -2556,12 +2584,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2569,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>270</v>
       </c>
@@ -2577,7 +2605,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>272</v>
       </c>
@@ -2585,7 +2613,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>305</v>
       </c>
@@ -2606,12 +2634,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2627,7 +2655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -2635,7 +2663,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -2643,7 +2671,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -2651,7 +2679,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -2659,7 +2687,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>315</v>
       </c>
@@ -2667,7 +2695,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>332</v>
       </c>
@@ -2675,7 +2703,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>334</v>
       </c>
@@ -2683,7 +2711,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>340</v>
       </c>
@@ -2691,7 +2719,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>365</v>
       </c>
@@ -2699,7 +2727,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>432</v>
       </c>
@@ -2707,7 +2735,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>433</v>
       </c>
@@ -2715,7 +2743,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>439</v>
       </c>
@@ -2736,9 +2764,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2759,12 +2787,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2772,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -2780,7 +2808,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>211</v>
       </c>
@@ -2788,7 +2816,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>276</v>
       </c>
@@ -2796,7 +2824,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -2817,12 +2845,12 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2830,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2838,7 +2866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2846,7 +2874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2854,7 +2882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2862,7 +2890,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -2870,7 +2898,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -2878,7 +2906,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -2886,7 +2914,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -2894,7 +2922,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -2902,7 +2930,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -2910,7 +2938,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>185</v>
       </c>
@@ -2918,7 +2946,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -2926,7 +2954,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>241</v>
       </c>
@@ -2934,7 +2962,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -2942,7 +2970,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>311</v>
       </c>
@@ -2950,7 +2978,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>318</v>
       </c>
@@ -2958,7 +2986,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>326</v>
       </c>
@@ -2966,7 +2994,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>338</v>
       </c>
@@ -2974,7 +3002,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>348</v>
       </c>
@@ -2982,7 +3010,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>419</v>
       </c>
@@ -2990,7 +3018,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>421</v>
       </c>
@@ -2998,7 +3026,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>422</v>
       </c>
@@ -3006,7 +3034,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>435</v>
       </c>
@@ -3014,7 +3042,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>474</v>
       </c>
@@ -3035,12 +3063,12 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3048,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3056,7 +3084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -3064,7 +3092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -3072,7 +3100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3080,7 +3108,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -3088,7 +3116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3096,7 +3124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3104,7 +3132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -3112,7 +3140,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3120,7 +3148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -3128,7 +3156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -3136,7 +3164,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -3144,7 +3172,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -3152,7 +3180,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>290</v>
       </c>
@@ -3160,7 +3188,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>324</v>
       </c>
@@ -3168,7 +3196,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>351</v>
       </c>
@@ -3176,7 +3204,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>355</v>
       </c>
@@ -3184,7 +3212,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>387</v>
       </c>
@@ -3192,7 +3220,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>388</v>
       </c>
@@ -3200,7 +3228,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>390</v>
       </c>
@@ -3208,7 +3236,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>394</v>
       </c>
@@ -3216,7 +3244,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>443</v>
       </c>
@@ -3224,7 +3252,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>454</v>
       </c>
@@ -3245,12 +3273,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3258,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -3266,7 +3294,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -3274,7 +3302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -3282,7 +3310,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -3290,7 +3318,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3298,7 +3326,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -3306,7 +3334,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>293</v>
       </c>
@@ -3314,7 +3342,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>306</v>
       </c>
@@ -3322,7 +3350,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>363</v>
       </c>
@@ -3330,7 +3358,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>383</v>
       </c>
@@ -3338,7 +3366,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>468</v>
       </c>
@@ -3359,9 +3387,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3382,12 +3410,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3395,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -3403,7 +3431,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>346</v>
       </c>
@@ -3411,7 +3439,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>424</v>
       </c>
@@ -3432,12 +3460,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3445,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3453,7 +3481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3461,7 +3489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3469,7 +3497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -3477,7 +3505,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -3485,7 +3513,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -3493,7 +3521,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -3501,7 +3529,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>217</v>
       </c>
@@ -3509,7 +3537,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>227</v>
       </c>
@@ -3517,7 +3545,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>430</v>
       </c>
@@ -3525,7 +3553,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>453</v>
       </c>
@@ -3533,7 +3561,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>470</v>
       </c>
@@ -3554,9 +3582,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3577,12 +3605,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3590,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -3611,9 +3639,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3634,13 +3662,13 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3648,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -3656,7 +3684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -3664,7 +3692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -3672,7 +3700,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -3680,7 +3708,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -3688,7 +3716,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3696,7 +3724,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -3704,7 +3732,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -3712,7 +3740,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>252</v>
       </c>
@@ -3720,7 +3748,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>314</v>
       </c>
@@ -3728,7 +3756,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>336</v>
       </c>
@@ -3736,7 +3764,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -3744,7 +3772,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>371</v>
       </c>
@@ -3752,7 +3780,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -3760,7 +3788,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>378</v>
       </c>
@@ -3768,7 +3796,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>392</v>
       </c>
@@ -3776,7 +3804,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>395</v>
       </c>
@@ -3784,7 +3812,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>456</v>
       </c>
@@ -3806,13 +3834,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3820,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3828,7 +3856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -3836,7 +3864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3844,7 +3872,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -3852,7 +3880,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -3860,7 +3888,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -3868,7 +3896,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -3876,7 +3904,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -3884,7 +3912,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -3892,7 +3920,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -3900,7 +3928,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -3908,7 +3936,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -3916,7 +3944,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>245</v>
       </c>
@@ -3924,7 +3952,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -3932,7 +3960,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>254</v>
       </c>
@@ -3940,7 +3968,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>292</v>
       </c>
@@ -3948,7 +3976,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>299</v>
       </c>
@@ -3956,7 +3984,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>308</v>
       </c>
@@ -3964,7 +3992,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>400</v>
       </c>
@@ -3972,7 +4000,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -3980,7 +4008,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>415</v>
       </c>
@@ -4001,9 +4029,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4011,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
@@ -4019,7 +4047,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>309</v>
       </c>
@@ -4027,7 +4055,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>381</v>
       </c>
@@ -4035,7 +4063,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -4057,12 +4085,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4070,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -4078,7 +4106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -4086,7 +4114,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4094,7 +4122,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -4102,7 +4130,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -4110,7 +4138,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>284</v>
       </c>
@@ -4118,7 +4146,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>328</v>
       </c>
@@ -4126,7 +4154,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>407</v>
       </c>
@@ -4134,7 +4162,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>428</v>
       </c>
@@ -4142,7 +4170,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>449</v>
       </c>
@@ -4163,12 +4191,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4176,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4184,7 +4212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -4192,7 +4220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -4200,7 +4228,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4208,7 +4236,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -4216,7 +4244,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -4224,7 +4252,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>231</v>
       </c>
@@ -4232,7 +4260,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>249</v>
       </c>
@@ -4240,7 +4268,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -4248,7 +4276,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>288</v>
       </c>
@@ -4256,7 +4284,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>367</v>
       </c>
@@ -4264,7 +4292,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>445</v>
       </c>
@@ -4272,7 +4300,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>458</v>
       </c>
@@ -4280,7 +4308,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -4301,12 +4329,12 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -4322,7 +4350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -4330,7 +4358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -4338,7 +4366,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -4346,7 +4374,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -4354,7 +4382,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -4362,7 +4390,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -4370,7 +4398,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -4378,7 +4406,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -4386,7 +4414,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -4394,7 +4422,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -4402,7 +4430,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>163</v>
       </c>
@@ -4410,7 +4438,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>167</v>
       </c>
@@ -4418,7 +4446,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -4426,7 +4454,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -4434,7 +4462,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>169</v>
       </c>
@@ -4442,7 +4470,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -4450,7 +4478,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>258</v>
       </c>
@@ -4458,7 +4486,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -4466,7 +4494,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>397</v>
       </c>
@@ -4474,7 +4502,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>399</v>
       </c>
@@ -4482,7 +4510,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>403</v>
       </c>
@@ -4490,7 +4518,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>405</v>
       </c>
@@ -4498,7 +4526,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>451</v>
       </c>
@@ -4519,12 +4547,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4532,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -4540,7 +4568,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>140</v>
       </c>
@@ -4548,7 +4576,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -4556,7 +4584,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>235</v>
       </c>
@@ -4564,7 +4592,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -4572,7 +4600,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>317</v>
       </c>
@@ -4580,7 +4608,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>409</v>
       </c>
@@ -4588,7 +4616,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>410</v>
       </c>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Inclusive-Language-using-Python\Inclusive-Language-using-Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandita/Documents/GitHub/Inclusive-Language-using-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46573077-051C-4EC0-9E80-362CBC9CF924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E314F5-45CD-C247-AB26-97DDDD066663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="12" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="532">
   <si>
     <t>KEY</t>
   </si>
@@ -1498,6 +1498,162 @@
   </si>
   <si>
     <t>drag</t>
+  </si>
+  <si>
+    <t>STRINGS</t>
+  </si>
+  <si>
+    <t>1.He has autism</t>
+  </si>
+  <si>
+    <t>2.she has autism</t>
+  </si>
+  <si>
+    <t>3.autism</t>
+  </si>
+  <si>
+    <t>1. He has an alcoholic problem</t>
+  </si>
+  <si>
+    <t>2.she has an alcoholic problem.</t>
+  </si>
+  <si>
+    <t>3.alcoholic problem</t>
+  </si>
+  <si>
+    <t>1.He is struggling with addiction</t>
+  </si>
+  <si>
+    <t>2.she is struggling with addiction</t>
+  </si>
+  <si>
+    <t>2.a person struggling with addiction</t>
+  </si>
+  <si>
+    <t>4.a person with alcohol problem</t>
+  </si>
+  <si>
+    <t>1.he was born with albinism</t>
+  </si>
+  <si>
+    <t>2.she was born with albinism</t>
+  </si>
+  <si>
+    <t>3.a person with albinism</t>
+  </si>
+  <si>
+    <t>1.They are indiigenous people</t>
+  </si>
+  <si>
+    <t>2.he is an indigenous person</t>
+  </si>
+  <si>
+    <t>1.cancel</t>
+  </si>
+  <si>
+    <t>2.end</t>
+  </si>
+  <si>
+    <t>3.cancel progress</t>
+  </si>
+  <si>
+    <t>4.end progress</t>
+  </si>
+  <si>
+    <t>3.she is an indigenous person</t>
+  </si>
+  <si>
+    <t>1.he is without disability</t>
+  </si>
+  <si>
+    <t>2.she is without disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.these people are without disability </t>
+  </si>
+  <si>
+    <t>1. a relationshiip with a person whio is abusive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. average </t>
+  </si>
+  <si>
+    <t>2.average person</t>
+  </si>
+  <si>
+    <t>4.ordinary person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they are with </t>
+  </si>
+  <si>
+    <t>1.he is with a disability</t>
+  </si>
+  <si>
+    <t>2.she is with a disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they are with disability </t>
+  </si>
+  <si>
+    <t>1.he is a person with AIDS</t>
+  </si>
+  <si>
+    <t>2.she is a person wirth AIDS</t>
+  </si>
+  <si>
+    <t>3.These are the people with AIDS</t>
+  </si>
+  <si>
+    <t>blocked dates</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>1.he is a person who is blind</t>
+  </si>
+  <si>
+    <t>2.she is a person who is blind</t>
+  </si>
+  <si>
+    <t>1.closed box</t>
+  </si>
+  <si>
+    <t>2.closed system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.uneducated </t>
+  </si>
+  <si>
+    <t>2.insensitive</t>
+  </si>
+  <si>
+    <t>3.dense</t>
+  </si>
+  <si>
+    <t>1. he is with bipolar desorder</t>
+  </si>
+  <si>
+    <t>2.she is with bipolar disorder</t>
+  </si>
+  <si>
+    <t>3.he has bipolar disorder</t>
+  </si>
+  <si>
+    <t>4.she has bipolar disorder</t>
+  </si>
+  <si>
+    <t>1.he has gone through a traumatic brain injury</t>
+  </si>
+  <si>
+    <t>2.she has gone through a traumatic brain injury</t>
+  </si>
+  <si>
+    <t>1.he is born with a disabilty</t>
+  </si>
+  <si>
+    <t>2.she is born with a disability</t>
   </si>
 </sst>
 </file>
@@ -1871,50 +2027,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6858CDCC-8F19-4C26-BB84-3C886140036A}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G3" t="s">
+        <v>486</v>
+      </c>
+      <c r="H3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>487</v>
+      </c>
+      <c r="F4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -1922,39 +2120,78 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>191</v>
       </c>
       <c r="B6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>491</v>
+      </c>
+      <c r="F6" t="s">
+        <v>492</v>
+      </c>
+      <c r="G6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>221</v>
       </c>
       <c r="B7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>223</v>
       </c>
       <c r="B8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F8" t="s">
+        <v>497</v>
+      </c>
+      <c r="G8" t="s">
+        <v>498</v>
+      </c>
+      <c r="H8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>233</v>
       </c>
       <c r="B9" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F9" t="s">
+        <v>502</v>
+      </c>
+      <c r="G9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>243</v>
       </c>
@@ -1962,36 +2199,69 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>330</v>
       </c>
       <c r="B11" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>349</v>
       </c>
       <c r="B12" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>512</v>
+      </c>
+      <c r="F12" t="s">
+        <v>513</v>
+      </c>
+      <c r="G12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>423</v>
       </c>
       <c r="B13" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F13" t="s">
+        <v>510</v>
+      </c>
+      <c r="G13" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>464</v>
       </c>
       <c r="B14" t="s">
         <v>465</v>
+      </c>
+      <c r="E14" t="s">
+        <v>505</v>
+      </c>
+      <c r="F14" t="s">
+        <v>506</v>
+      </c>
+      <c r="G14" t="s">
+        <v>508</v>
+      </c>
+      <c r="H14" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -2007,9 +2277,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2030,12 +2300,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2043,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -2051,7 +2321,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -2059,7 +2329,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>361</v>
       </c>
@@ -2080,12 +2350,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2101,7 +2371,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2109,7 +2379,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -2117,7 +2387,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>297</v>
       </c>
@@ -2125,7 +2395,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>359</v>
       </c>
@@ -2133,7 +2403,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>417</v>
       </c>
@@ -2141,7 +2411,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>418</v>
       </c>
@@ -2149,7 +2419,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>441</v>
       </c>
@@ -2157,7 +2427,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>466</v>
       </c>
@@ -2174,17 +2444,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09836E84-368E-489C-9D89-DF2EE8B16D2B}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2192,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2200,7 +2470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2208,7 +2478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2216,7 +2486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2224,7 +2494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2232,7 +2502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2240,7 +2510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2248,7 +2518,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -2256,7 +2526,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2264,7 +2534,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -2272,7 +2542,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>141</v>
       </c>
@@ -2280,7 +2550,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -2288,7 +2558,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -2296,7 +2566,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -2304,7 +2574,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>207</v>
       </c>
@@ -2312,7 +2582,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>229</v>
       </c>
@@ -2320,7 +2590,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>237</v>
       </c>
@@ -2328,7 +2598,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>239</v>
       </c>
@@ -2336,7 +2606,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>286</v>
       </c>
@@ -2344,7 +2614,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>303</v>
       </c>
@@ -2352,7 +2622,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>319</v>
       </c>
@@ -2360,7 +2630,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>342</v>
       </c>
@@ -2368,7 +2638,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>344</v>
       </c>
@@ -2376,7 +2646,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>353</v>
       </c>
@@ -2384,7 +2654,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>385</v>
       </c>
@@ -2392,7 +2662,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>426</v>
       </c>
@@ -2400,7 +2670,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>437</v>
       </c>
@@ -2408,7 +2678,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>447</v>
       </c>
@@ -2416,7 +2686,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>460</v>
       </c>
@@ -2424,7 +2694,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>462</v>
       </c>
@@ -2432,7 +2702,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>476</v>
       </c>
@@ -2440,7 +2710,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>477</v>
       </c>
@@ -2461,12 +2731,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2474,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -2482,7 +2752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -2490,7 +2760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -2498,7 +2768,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -2506,7 +2776,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -2514,7 +2784,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -2522,7 +2792,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>301</v>
       </c>
@@ -2530,7 +2800,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -2538,7 +2808,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>322</v>
       </c>
@@ -2546,7 +2816,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>357</v>
       </c>
@@ -2554,7 +2824,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>375</v>
       </c>
@@ -2562,7 +2832,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>413</v>
       </c>
@@ -2584,12 +2854,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2597,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>270</v>
       </c>
@@ -2605,7 +2875,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>272</v>
       </c>
@@ -2613,7 +2883,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>305</v>
       </c>
@@ -2634,12 +2904,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2647,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2655,7 +2925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -2663,7 +2933,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -2671,7 +2941,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -2679,7 +2949,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -2687,7 +2957,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>315</v>
       </c>
@@ -2695,7 +2965,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>332</v>
       </c>
@@ -2703,7 +2973,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>334</v>
       </c>
@@ -2711,7 +2981,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>340</v>
       </c>
@@ -2719,7 +2989,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>365</v>
       </c>
@@ -2727,7 +2997,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>432</v>
       </c>
@@ -2735,7 +3005,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>433</v>
       </c>
@@ -2743,7 +3013,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>439</v>
       </c>
@@ -2764,9 +3034,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2787,12 +3057,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2800,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -2808,7 +3078,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>211</v>
       </c>
@@ -2816,7 +3086,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>276</v>
       </c>
@@ -2824,7 +3094,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -2845,12 +3115,12 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2858,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2866,7 +3136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2874,7 +3144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2882,7 +3152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2890,7 +3160,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -2898,7 +3168,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -2906,7 +3176,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -2914,7 +3184,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -2922,7 +3192,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -2930,7 +3200,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -2938,7 +3208,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>185</v>
       </c>
@@ -2946,7 +3216,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -2954,7 +3224,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>241</v>
       </c>
@@ -2962,7 +3232,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -2970,7 +3240,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>311</v>
       </c>
@@ -2978,7 +3248,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>318</v>
       </c>
@@ -2986,7 +3256,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>326</v>
       </c>
@@ -2994,7 +3264,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>338</v>
       </c>
@@ -3002,7 +3272,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>348</v>
       </c>
@@ -3010,7 +3280,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>419</v>
       </c>
@@ -3018,7 +3288,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>421</v>
       </c>
@@ -3026,7 +3296,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>422</v>
       </c>
@@ -3034,7 +3304,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>435</v>
       </c>
@@ -3042,7 +3312,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>474</v>
       </c>
@@ -3057,26 +3327,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AD149B-B65F-49C4-AF01-021394194CC2}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3084,15 +3366,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -3100,15 +3382,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -3116,15 +3404,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3132,7 +3426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -3140,7 +3434,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3148,15 +3442,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>521</v>
+      </c>
+      <c r="F11" t="s">
+        <v>522</v>
+      </c>
+      <c r="G11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -3164,15 +3467,27 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>195</v>
       </c>
       <c r="B13" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>524</v>
+      </c>
+      <c r="F13" t="s">
+        <v>525</v>
+      </c>
+      <c r="G13" t="s">
+        <v>526</v>
+      </c>
+      <c r="H13" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -3180,7 +3495,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>290</v>
       </c>
@@ -3188,7 +3503,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>324</v>
       </c>
@@ -3196,15 +3511,21 @@
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>351</v>
       </c>
       <c r="B17" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>528</v>
+      </c>
+      <c r="F17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>355</v>
       </c>
@@ -3212,7 +3533,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>387</v>
       </c>
@@ -3220,7 +3541,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>388</v>
       </c>
@@ -3228,23 +3549,35 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>390</v>
       </c>
       <c r="B21" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>530</v>
+      </c>
+      <c r="F21" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>394</v>
       </c>
       <c r="B22" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>530</v>
+      </c>
+      <c r="F22" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>443</v>
       </c>
@@ -3252,7 +3585,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>454</v>
       </c>
@@ -3273,12 +3606,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3286,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -3294,7 +3627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -3302,7 +3635,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -3310,7 +3643,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -3318,7 +3651,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3326,7 +3659,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -3334,7 +3667,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>293</v>
       </c>
@@ -3342,7 +3675,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>306</v>
       </c>
@@ -3350,7 +3683,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>363</v>
       </c>
@@ -3358,7 +3691,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>383</v>
       </c>
@@ -3366,7 +3699,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>468</v>
       </c>
@@ -3387,9 +3720,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3410,12 +3743,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3423,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -3431,7 +3764,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>346</v>
       </c>
@@ -3439,7 +3772,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>424</v>
       </c>
@@ -3460,12 +3793,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3481,7 +3814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3489,7 +3822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3497,7 +3830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -3505,7 +3838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -3513,7 +3846,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -3521,7 +3854,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -3529,7 +3862,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>217</v>
       </c>
@@ -3537,7 +3870,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>227</v>
       </c>
@@ -3545,7 +3878,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>430</v>
       </c>
@@ -3553,7 +3886,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>453</v>
       </c>
@@ -3561,7 +3894,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>470</v>
       </c>
@@ -3582,9 +3915,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3605,12 +3938,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3618,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -3639,9 +3972,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3662,13 +3995,13 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3676,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -3684,7 +4017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -3692,7 +4025,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -3700,7 +4033,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -3708,7 +4041,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -3716,7 +4049,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3724,7 +4057,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -3732,7 +4065,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -3740,7 +4073,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>252</v>
       </c>
@@ -3748,7 +4081,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>314</v>
       </c>
@@ -3756,7 +4089,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>336</v>
       </c>
@@ -3764,7 +4097,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -3772,7 +4105,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>371</v>
       </c>
@@ -3780,7 +4113,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -3788,7 +4121,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>378</v>
       </c>
@@ -3796,7 +4129,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>392</v>
       </c>
@@ -3804,7 +4137,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>395</v>
       </c>
@@ -3812,7 +4145,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>456</v>
       </c>
@@ -3834,13 +4167,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3848,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3856,7 +4189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -3864,7 +4197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3872,7 +4205,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -3880,7 +4213,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -3888,7 +4221,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -3896,7 +4229,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -3904,7 +4237,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -3912,7 +4245,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -3920,7 +4253,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -3928,7 +4261,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -3936,7 +4269,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -3944,7 +4277,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>245</v>
       </c>
@@ -3952,7 +4285,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -3960,7 +4293,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>254</v>
       </c>
@@ -3968,7 +4301,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>292</v>
       </c>
@@ -3976,7 +4309,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>299</v>
       </c>
@@ -3984,7 +4317,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>308</v>
       </c>
@@ -3992,7 +4325,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>400</v>
       </c>
@@ -4000,7 +4333,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -4008,7 +4341,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>415</v>
       </c>
@@ -4029,9 +4362,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4039,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
@@ -4047,7 +4380,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>309</v>
       </c>
@@ -4055,7 +4388,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>381</v>
       </c>
@@ -4063,7 +4396,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -4085,12 +4418,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4098,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -4106,7 +4439,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -4114,7 +4447,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4122,7 +4455,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -4130,7 +4463,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -4138,7 +4471,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>284</v>
       </c>
@@ -4146,7 +4479,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>328</v>
       </c>
@@ -4154,7 +4487,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>407</v>
       </c>
@@ -4162,7 +4495,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>428</v>
       </c>
@@ -4170,7 +4503,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>449</v>
       </c>
@@ -4191,12 +4524,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4204,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4212,7 +4545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -4220,7 +4553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -4228,7 +4561,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4236,7 +4569,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -4244,7 +4577,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -4252,7 +4585,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>231</v>
       </c>
@@ -4260,7 +4593,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>249</v>
       </c>
@@ -4268,7 +4601,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -4276,7 +4609,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>288</v>
       </c>
@@ -4284,7 +4617,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>367</v>
       </c>
@@ -4292,7 +4625,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>445</v>
       </c>
@@ -4300,7 +4633,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>458</v>
       </c>
@@ -4308,7 +4641,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -4329,12 +4662,12 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4342,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -4350,7 +4683,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -4358,7 +4691,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -4366,7 +4699,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -4374,7 +4707,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -4382,7 +4715,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -4390,7 +4723,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -4398,7 +4731,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -4406,7 +4739,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -4414,7 +4747,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -4422,7 +4755,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -4430,7 +4763,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>163</v>
       </c>
@@ -4438,7 +4771,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>167</v>
       </c>
@@ -4446,7 +4779,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -4454,7 +4787,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -4462,7 +4795,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>169</v>
       </c>
@@ -4470,7 +4803,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -4478,7 +4811,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>258</v>
       </c>
@@ -4486,7 +4819,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -4494,7 +4827,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>397</v>
       </c>
@@ -4502,7 +4835,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>399</v>
       </c>
@@ -4510,7 +4843,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>403</v>
       </c>
@@ -4518,7 +4851,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>405</v>
       </c>
@@ -4526,7 +4859,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>451</v>
       </c>
@@ -4547,12 +4880,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4560,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -4568,7 +4901,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>140</v>
       </c>
@@ -4576,7 +4909,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -4584,7 +4917,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>235</v>
       </c>
@@ -4592,7 +4925,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -4600,7 +4933,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>317</v>
       </c>
@@ -4608,7 +4941,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>409</v>
       </c>
@@ -4616,7 +4949,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>410</v>
       </c>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandita/Documents/GitHub/Inclusive-Language-using-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E314F5-45CD-C247-AB26-97DDDD066663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740F250F-DA74-724A-A703-B643E8689644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="611">
   <si>
     <t>KEY</t>
   </si>
@@ -1137,9 +1137,6 @@
     <t>sex assigned at birth</t>
   </si>
   <si>
-    <t>Low-class people</t>
-  </si>
-  <si>
     <t>people whose income are below the federal poverty threshold</t>
   </si>
   <si>
@@ -1266,9 +1263,6 @@
     <t>Epileptic</t>
   </si>
   <si>
-    <t>person who has epilepsy</t>
-  </si>
-  <si>
     <t>Handicapped parking</t>
   </si>
   <si>
@@ -1281,9 +1275,6 @@
     <t>accessible bathrooms</t>
   </si>
   <si>
-    <t>Fit,attack,spell</t>
-  </si>
-  <si>
     <t>Seizure</t>
   </si>
   <si>
@@ -1293,12 +1284,6 @@
     <t>Incoherent</t>
   </si>
   <si>
-    <t xml:space="preserve">person who has a speech disorder </t>
-  </si>
-  <si>
-    <t>person who has a speech disability</t>
-  </si>
-  <si>
     <t>Neurotic</t>
   </si>
   <si>
@@ -1654,6 +1639,258 @@
   </si>
   <si>
     <t>2.she is born with a disability</t>
+  </si>
+  <si>
+    <t>1.person with psychiatric disability</t>
+  </si>
+  <si>
+    <t>2.person with  mental illness</t>
+  </si>
+  <si>
+    <t>1.slows down</t>
+  </si>
+  <si>
+    <t>2.slow down</t>
+  </si>
+  <si>
+    <t>3.hinders</t>
+  </si>
+  <si>
+    <t>4.prevents</t>
+  </si>
+  <si>
+    <t>1.congressional respresentative</t>
+  </si>
+  <si>
+    <t>2.legislator</t>
+  </si>
+  <si>
+    <t>1.come together</t>
+  </si>
+  <si>
+    <t>2.regroup</t>
+  </si>
+  <si>
+    <t>3.focus</t>
+  </si>
+  <si>
+    <t>1.youth</t>
+  </si>
+  <si>
+    <t>2.young person</t>
+  </si>
+  <si>
+    <t>1. an european american</t>
+  </si>
+  <si>
+    <t>1.forcefully halt</t>
+  </si>
+  <si>
+    <t>2.halt</t>
+  </si>
+  <si>
+    <t>1.women</t>
+  </si>
+  <si>
+    <t>2.folks</t>
+  </si>
+  <si>
+    <t>1.junior employee</t>
+  </si>
+  <si>
+    <t>2.newest team member</t>
+  </si>
+  <si>
+    <t>1.latino</t>
+  </si>
+  <si>
+    <t>2.latina</t>
+  </si>
+  <si>
+    <t>Low-class (people)</t>
+  </si>
+  <si>
+    <t>1.leader</t>
+  </si>
+  <si>
+    <t>2.follower</t>
+  </si>
+  <si>
+    <t>1.criminal</t>
+  </si>
+  <si>
+    <t>2.wrongdoer</t>
+  </si>
+  <si>
+    <t>1.parent</t>
+  </si>
+  <si>
+    <t>2.guardian</t>
+  </si>
+  <si>
+    <t>3.caregivers</t>
+  </si>
+  <si>
+    <t>1.source</t>
+  </si>
+  <si>
+    <t>2.main</t>
+  </si>
+  <si>
+    <t>3.primary</t>
+  </si>
+  <si>
+    <t>1.native american</t>
+  </si>
+  <si>
+    <t>2.african american</t>
+  </si>
+  <si>
+    <t>3.people of color</t>
+  </si>
+  <si>
+    <t>1.workforce</t>
+  </si>
+  <si>
+    <t>2.human effort</t>
+  </si>
+  <si>
+    <t>1. a person with mental illness</t>
+  </si>
+  <si>
+    <t>1.person</t>
+  </si>
+  <si>
+    <t>2.individual</t>
+  </si>
+  <si>
+    <t>1.multiracial</t>
+  </si>
+  <si>
+    <t>2.multiethnic</t>
+  </si>
+  <si>
+    <t>1.synthetic</t>
+  </si>
+  <si>
+    <t>2.manufactured</t>
+  </si>
+  <si>
+    <t>1.a person with substance use disorder</t>
+  </si>
+  <si>
+    <t>a person with psychiatric disability/ mental illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. a person with psychiatric disability </t>
+  </si>
+  <si>
+    <t>2. a person with mental illness</t>
+  </si>
+  <si>
+    <t>1.a person with intellectual disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. a person with cognitive disabilty </t>
+  </si>
+  <si>
+    <t>3. a person with developmental disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.youth </t>
+  </si>
+  <si>
+    <t>1.indigenous people</t>
+  </si>
+  <si>
+    <t>2.native american</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person who has a speech disorder </t>
+  </si>
+  <si>
+    <t>a person who has a speech disability</t>
+  </si>
+  <si>
+    <t>1.Non-disabled person</t>
+  </si>
+  <si>
+    <t>2.person without disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.they </t>
+  </si>
+  <si>
+    <t>2.them</t>
+  </si>
+  <si>
+    <t>3.theirs</t>
+  </si>
+  <si>
+    <t>2. cleanup</t>
+  </si>
+  <si>
+    <t>1.Maintenance</t>
+  </si>
+  <si>
+    <t>3.overview</t>
+  </si>
+  <si>
+    <t>1.engineer</t>
+  </si>
+  <si>
+    <t>2.developer</t>
+  </si>
+  <si>
+    <t>1. experienced person</t>
+  </si>
+  <si>
+    <t>2.knowledgeable person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.core concept </t>
+  </si>
+  <si>
+    <t>2.top level</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>spell</t>
+  </si>
+  <si>
+    <t>1. a person formerly convicted</t>
+  </si>
+  <si>
+    <t>1.older</t>
+  </si>
+  <si>
+    <t>2.experienced</t>
+  </si>
+  <si>
+    <t>a person who has epilepsy</t>
+  </si>
+  <si>
+    <t>1.uniformed</t>
+  </si>
+  <si>
+    <t>2.ignorant</t>
+  </si>
+  <si>
+    <t>1.computer terminal</t>
+  </si>
+  <si>
+    <t>2.thin client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. a person with dwarfism </t>
+  </si>
+  <si>
+    <t>2.a person with short stature</t>
   </si>
 </sst>
 </file>
@@ -2046,16 +2283,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2066,13 +2303,13 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2083,16 +2320,16 @@
         <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H3" t="s">
         <v>485</v>
-      </c>
-      <c r="G3" t="s">
-        <v>486</v>
-      </c>
-      <c r="H3" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2103,13 +2340,13 @@
         <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F4" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G4" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2128,13 +2365,13 @@
         <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F6" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G6" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2145,13 +2382,13 @@
         <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G7" t="s">
         <v>495</v>
-      </c>
-      <c r="G7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2162,16 +2399,16 @@
         <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F8" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G8" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H8" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2182,13 +2419,13 @@
         <v>234</v>
       </c>
       <c r="E9" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G9" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2207,7 +2444,7 @@
         <v>331</v>
       </c>
       <c r="E11" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2218,50 +2455,50 @@
         <v>350</v>
       </c>
       <c r="E12" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F12" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G12" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
         <v>339</v>
       </c>
       <c r="E13" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F13" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G13" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E14" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F14" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G14" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H14" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -2294,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8141D833-7611-4242-9B00-E47F9E6D638A}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2305,23 +2542,41 @@
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>260</v>
       </c>
       <c r="B2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -2329,12 +2584,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" t="s">
         <v>361</v>
-      </c>
-      <c r="B4" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -2344,10 +2599,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C043F532-906E-4302-9FB6-256AACBA4087}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="180" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2355,15 +2610,18 @@
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2371,68 +2629,86 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>264</v>
       </c>
       <c r="B4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>545</v>
+      </c>
+      <c r="F4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>297</v>
       </c>
       <c r="B5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>547</v>
+      </c>
+      <c r="F5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B6" t="s">
         <v>359</v>
       </c>
-      <c r="B6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -2442,10 +2718,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09836E84-368E-489C-9D89-DF2EE8B16D2B}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView zoomScale="176" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2454,23 +2730,32 @@
     <col min="2" max="2" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2478,15 +2763,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>552</v>
+      </c>
+      <c r="F4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2494,39 +2785,72 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>554</v>
+      </c>
+      <c r="F6" t="s">
+        <v>555</v>
+      </c>
+      <c r="G6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>560</v>
+      </c>
+      <c r="F8" t="s">
+        <v>561</v>
+      </c>
+      <c r="G8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>94</v>
       </c>
       <c r="B9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>563</v>
+      </c>
+      <c r="F9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2534,15 +2858,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>122</v>
       </c>
       <c r="B11" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>141</v>
       </c>
@@ -2550,7 +2877,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -2558,15 +2885,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>172</v>
       </c>
       <c r="B14" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>566</v>
+      </c>
+      <c r="F14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -2574,7 +2907,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>207</v>
       </c>
@@ -2582,7 +2915,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>229</v>
       </c>
@@ -2590,7 +2923,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>237</v>
       </c>
@@ -2598,7 +2931,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>239</v>
       </c>
@@ -2606,7 +2939,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>286</v>
       </c>
@@ -2614,23 +2947,35 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>303</v>
       </c>
       <c r="B21" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>568</v>
+      </c>
+      <c r="F21" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>319</v>
       </c>
       <c r="B22" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>570</v>
+      </c>
+      <c r="F22" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>342</v>
       </c>
@@ -2638,7 +2983,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>344</v>
       </c>
@@ -2646,76 +2991,79 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>353</v>
       </c>
       <c r="B25" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" t="s">
         <v>385</v>
       </c>
-      <c r="B26" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B27" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B28" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B29" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B30" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B32" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B33" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -2826,18 +3174,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" t="s">
         <v>375</v>
-      </c>
-      <c r="B12" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B13" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +3236,7 @@
         <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -2991,34 +3339,34 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" t="s">
         <v>365</v>
-      </c>
-      <c r="B11" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B12" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B14" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -3253,7 +3601,7 @@
         <v>318</v>
       </c>
       <c r="B17" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3282,15 +3630,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B21" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B22" t="s">
         <v>339</v>
@@ -3298,7 +3646,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B23" t="s">
         <v>339</v>
@@ -3306,18 +3654,18 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B24" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B25" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -3329,8 +3677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AD149B-B65F-49C4-AF01-021394194CC2}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3346,16 +3694,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3371,7 +3719,7 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3390,10 +3738,10 @@
         <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3412,10 +3760,10 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3450,13 +3798,13 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G11" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3475,16 +3823,16 @@
         <v>196</v>
       </c>
       <c r="E13" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F13" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G13" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H13" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3519,10 +3867,10 @@
         <v>352</v>
       </c>
       <c r="E17" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F17" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3535,62 +3883,62 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" t="s">
         <v>388</v>
-      </c>
-      <c r="B20" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" t="s">
         <v>390</v>
       </c>
-      <c r="B21" t="s">
-        <v>391</v>
-      </c>
       <c r="E21" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F21" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E22" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F22" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B23" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B24" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3685,26 +4033,26 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" t="s">
         <v>363</v>
-      </c>
-      <c r="B10" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B11" t="s">
         <v>383</v>
-      </c>
-      <c r="B11" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B12" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -3774,10 +4122,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3880,26 +4228,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B13" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -3989,10 +4337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5D6BBD-6DA2-42DF-A06F-6A55D030943B}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4001,15 +4349,27 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -4017,7 +4377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -4025,23 +4385,41 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>527</v>
+      </c>
+      <c r="F4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F5" t="s">
+        <v>530</v>
+      </c>
+      <c r="G5" t="s">
+        <v>531</v>
+      </c>
+      <c r="H5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -4049,7 +4427,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -4057,7 +4435,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -4065,31 +4443,52 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>178</v>
       </c>
       <c r="B9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>533</v>
+      </c>
+      <c r="F9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>252</v>
       </c>
       <c r="B10" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>535</v>
+      </c>
+      <c r="F10" t="s">
+        <v>536</v>
+      </c>
+      <c r="G10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>314</v>
       </c>
       <c r="B11" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>336</v>
       </c>
@@ -4097,60 +4496,63 @@
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" t="s">
         <v>369</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>371</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>373</v>
       </c>
-      <c r="B15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B16" t="s">
         <v>378</v>
       </c>
-      <c r="B16" t="s">
-        <v>379</v>
+      <c r="E16" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17" t="s">
         <v>392</v>
-      </c>
-      <c r="B17" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" t="s">
         <v>395</v>
-      </c>
-      <c r="B18" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B19" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -4161,10 +4563,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE90B0CB-4A82-4A75-95AE-F3C98AA6F040}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4173,15 +4575,27 @@
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4189,15 +4603,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -4205,23 +4628,35 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>607</v>
+      </c>
+      <c r="F6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -4229,7 +4664,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -4237,7 +4672,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -4245,7 +4680,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -4253,15 +4688,21 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>193</v>
       </c>
       <c r="B11" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -4269,7 +4710,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -4277,7 +4718,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>245</v>
       </c>
@@ -4285,7 +4726,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -4293,7 +4734,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>254</v>
       </c>
@@ -4327,7 +4768,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B20" t="s">
         <v>131</v>
@@ -4343,10 +4784,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B22" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -4356,52 +4797,64 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA704C1C-49E1-499F-BBE3-96E07D259E79}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>309</v>
       </c>
       <c r="B3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" t="s">
         <v>381</v>
       </c>
-      <c r="B4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B5" t="s">
-        <v>402</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -4412,10 +4865,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C20B180-3B4C-4969-A7B5-2323B0CBFDFD}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="206" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4423,15 +4876,27 @@
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -4439,7 +4904,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -4447,7 +4912,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4455,7 +4920,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -4463,15 +4928,21 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>256</v>
       </c>
       <c r="B6" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>596</v>
+      </c>
+      <c r="F6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>284</v>
       </c>
@@ -4479,7 +4950,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>328</v>
       </c>
@@ -4487,28 +4958,44 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>407</v>
+        <v>598</v>
       </c>
       <c r="B9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>599</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>600</v>
       </c>
       <c r="B11" t="s">
-        <v>450</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -4518,10 +5005,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2B4D34-5DD5-462B-BE1D-EDB156A99AAB}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4529,15 +5016,27 @@
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4545,7 +5044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -4553,15 +5052,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4569,7 +5074,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -4577,7 +5082,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -4585,7 +5090,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>231</v>
       </c>
@@ -4593,7 +5098,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>249</v>
       </c>
@@ -4601,7 +5106,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -4609,7 +5114,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>288</v>
       </c>
@@ -4617,36 +5122,36 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" t="s">
         <v>367</v>
       </c>
-      <c r="B12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B13" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B15" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -4656,10 +5161,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1954444E-13D8-4952-9766-0067571A9DEC}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4667,63 +5172,126 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F4" t="s">
+        <v>587</v>
+      </c>
+      <c r="G4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>586</v>
+      </c>
+      <c r="F5" t="s">
+        <v>587</v>
+      </c>
+      <c r="G5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F6" t="s">
+        <v>587</v>
+      </c>
+      <c r="G6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>92</v>
       </c>
       <c r="B7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>590</v>
+      </c>
+      <c r="F7" t="s">
+        <v>589</v>
+      </c>
+      <c r="G7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -4731,7 +5299,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -4739,7 +5307,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -4747,15 +5315,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>592</v>
+      </c>
+      <c r="F11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -4763,7 +5337,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>163</v>
       </c>
@@ -4771,7 +5345,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>167</v>
       </c>
@@ -4779,7 +5353,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -4787,7 +5361,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -4829,42 +5403,42 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B21" t="s">
         <v>397</v>
-      </c>
-      <c r="B21" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B25" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4874,10 +5448,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF830CD-7188-43CF-8442-1E032F6FA383}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4885,31 +5459,58 @@
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+      <c r="E2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -4917,7 +5518,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>235</v>
       </c>
@@ -4925,36 +5526,48 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>312</v>
       </c>
       <c r="B6" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>579</v>
+      </c>
+      <c r="F6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>317</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="E7" t="s">
+        <v>580</v>
+      </c>
+      <c r="F7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B9" t="s">
-        <v>412</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandita/Documents/GitHub/Inclusive-Language-using-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740F250F-DA74-724A-A703-B643E8689644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E6176-65A8-C945-915B-F6007D188307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
   </bookViews>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandita/Documents/GitHub/Inclusive-Language-using-Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divek\Documents\GitHub\Inclusive-Language-using-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E6176-65A8-C945-915B-F6007D188307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A4E662-C9CA-499F-BD1C-5A4AFA8767F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="13" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="631">
   <si>
     <t>KEY</t>
   </si>
@@ -438,9 +438,6 @@
     <t>Poor</t>
   </si>
   <si>
-    <t>people with low income</t>
-  </si>
-  <si>
     <t>Victims</t>
   </si>
   <si>
@@ -606,9 +603,6 @@
     <t xml:space="preserve">Sex-change </t>
   </si>
   <si>
-    <t>Sex reassignment or gender affirming surgery</t>
-  </si>
-  <si>
     <t>Mailman</t>
   </si>
   <si>
@@ -1101,9 +1095,6 @@
     <t>Visually-challenged person</t>
   </si>
   <si>
-    <t>person who is blind/visually impaired person</t>
-  </si>
-  <si>
     <t>Sight-challenged person</t>
   </si>
   <si>
@@ -1287,9 +1278,6 @@
     <t>Neurotic</t>
   </si>
   <si>
-    <t>person with a mental-health disability</t>
-  </si>
-  <si>
     <t>Dyslexic</t>
   </si>
   <si>
@@ -1305,9 +1293,6 @@
     <t xml:space="preserve">Spastic </t>
   </si>
   <si>
-    <t>person who has spasms</t>
-  </si>
-  <si>
     <t>Suffers from</t>
   </si>
   <si>
@@ -1320,9 +1305,6 @@
     <t>Victim of cerebral palsy</t>
   </si>
   <si>
-    <t xml:space="preserve">person who has cerebral palsy/person with a mobility impairment </t>
-  </si>
-  <si>
     <t>Manning the office</t>
   </si>
   <si>
@@ -1891,6 +1873,84 @@
   </si>
   <si>
     <t>2.a person with short stature</t>
+  </si>
+  <si>
+    <t>uses a wheelchair</t>
+  </si>
+  <si>
+    <t>wheelchair user</t>
+  </si>
+  <si>
+    <t>visually impaired person</t>
+  </si>
+  <si>
+    <t>blind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has cerebral palsy </t>
+  </si>
+  <si>
+    <t>dealing with mobility impairment</t>
+  </si>
+  <si>
+    <t>has intellectual disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> has cognitive disability</t>
+  </si>
+  <si>
+    <t>has developmental  disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex reassignment  </t>
+  </si>
+  <si>
+    <t>gender affirming surgery</t>
+  </si>
+  <si>
+    <t>has a disability</t>
+  </si>
+  <si>
+    <t>he has a disability</t>
+  </si>
+  <si>
+    <t>she has a disability</t>
+  </si>
+  <si>
+    <t>has spasms</t>
+  </si>
+  <si>
+    <t>intellectual disability,cognitive disability ,developmental disability</t>
+  </si>
+  <si>
+    <t>she has paraplegia</t>
+  </si>
+  <si>
+    <t>he has paraplegia</t>
+  </si>
+  <si>
+    <t>has low income</t>
+  </si>
+  <si>
+    <t>have low income</t>
+  </si>
+  <si>
+    <t>has psychiatric disability</t>
+  </si>
+  <si>
+    <t>has mental illness</t>
+  </si>
+  <si>
+    <t>dealing with mental illness</t>
+  </si>
+  <si>
+    <t>has a mental-health disability</t>
+  </si>
+  <si>
+    <t>she has a mental-health disability</t>
+  </si>
+  <si>
+    <t>he has a mental-health disability</t>
   </si>
 </sst>
 </file>
@@ -2270,12 +2330,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2283,19 +2343,19 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2303,202 +2363,202 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" t="s">
+        <v>474</v>
+      </c>
+      <c r="G3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" t="s">
         <v>476</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>477</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
         <v>480</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F6" t="s">
         <v>481</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" t="s">
-        <v>482</v>
-      </c>
-      <c r="F4" t="s">
-        <v>483</v>
-      </c>
-      <c r="G4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F8" t="s">
         <v>486</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G8" t="s">
         <v>487</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H8" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" t="s">
-        <v>489</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" t="s">
         <v>490</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F9" t="s">
+        <v>491</v>
+      </c>
+      <c r="G9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" t="s">
+        <v>501</v>
+      </c>
+      <c r="F12" t="s">
+        <v>502</v>
+      </c>
+      <c r="G12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>413</v>
+      </c>
+      <c r="B13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" t="s">
+        <v>498</v>
+      </c>
+      <c r="F13" t="s">
+        <v>499</v>
+      </c>
+      <c r="G13" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E14" t="s">
+        <v>494</v>
+      </c>
+      <c r="F14" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" t="s">
-        <v>491</v>
-      </c>
-      <c r="F8" t="s">
-        <v>492</v>
-      </c>
-      <c r="G8" t="s">
-        <v>493</v>
-      </c>
-      <c r="H8" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G14" t="s">
+        <v>497</v>
+      </c>
+      <c r="H14" t="s">
         <v>496</v>
-      </c>
-      <c r="F9" t="s">
-        <v>497</v>
-      </c>
-      <c r="G9" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>330</v>
-      </c>
-      <c r="B11" t="s">
-        <v>331</v>
-      </c>
-      <c r="E11" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>349</v>
-      </c>
-      <c r="B12" t="s">
-        <v>350</v>
-      </c>
-      <c r="E12" t="s">
-        <v>507</v>
-      </c>
-      <c r="F12" t="s">
-        <v>508</v>
-      </c>
-      <c r="G12" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>418</v>
-      </c>
-      <c r="B13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" t="s">
-        <v>504</v>
-      </c>
-      <c r="F13" t="s">
-        <v>505</v>
-      </c>
-      <c r="G13" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>459</v>
-      </c>
-      <c r="B14" t="s">
-        <v>460</v>
-      </c>
-      <c r="E14" t="s">
-        <v>500</v>
-      </c>
-      <c r="F14" t="s">
-        <v>501</v>
-      </c>
-      <c r="G14" t="s">
-        <v>503</v>
-      </c>
-      <c r="H14" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -2514,9 +2574,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2537,12 +2597,12 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2550,46 +2610,46 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>260</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>261</v>
       </c>
-      <c r="E2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2605,12 +2665,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2618,10 +2678,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2629,7 +2689,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2637,78 +2697,78 @@
         <v>99</v>
       </c>
       <c r="E3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>539</v>
+      </c>
+      <c r="F4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>543</v>
       </c>
-      <c r="F3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E4" t="s">
-        <v>545</v>
-      </c>
-      <c r="F4" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" t="s">
-        <v>547</v>
-      </c>
-      <c r="F5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>549</v>
-      </c>
       <c r="B6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -2724,13 +2784,13 @@
       <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2738,10 +2798,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2749,13 +2809,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2763,7 +2823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2771,13 +2831,13 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2785,7 +2845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2793,16 +2853,16 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F6" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2810,16 +2870,16 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G7" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2827,16 +2887,16 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="F8" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G8" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -2844,13 +2904,13 @@
         <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F9" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2858,212 +2918,212 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" t="s">
+        <v>560</v>
+      </c>
+      <c r="F14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E21" t="s">
+        <v>562</v>
+      </c>
+      <c r="F21" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" t="s">
+        <v>564</v>
+      </c>
+      <c r="F22" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>342</v>
+      </c>
+      <c r="B24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B25" t="s">
+        <v>351</v>
+      </c>
+      <c r="E25" t="s">
         <v>566</v>
       </c>
-      <c r="F14" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>237</v>
-      </c>
-      <c r="B18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>239</v>
-      </c>
-      <c r="B19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>286</v>
-      </c>
-      <c r="B20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>303</v>
-      </c>
-      <c r="B21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E21" t="s">
-        <v>568</v>
-      </c>
-      <c r="F21" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>319</v>
-      </c>
-      <c r="B22" t="s">
-        <v>320</v>
-      </c>
-      <c r="E22" t="s">
-        <v>570</v>
-      </c>
-      <c r="F22" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>342</v>
-      </c>
-      <c r="B23" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>344</v>
-      </c>
-      <c r="B24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>353</v>
-      </c>
-      <c r="B25" t="s">
-        <v>354</v>
-      </c>
-      <c r="E25" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B26" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B27" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B28" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B29" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B30" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B31" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B32" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B33" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -3073,18 +3133,18 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F643455A-BF54-40F7-A3F8-8EAD8E02FB93}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3092,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -3100,7 +3160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -3108,84 +3168,90 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>266</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" t="s">
         <v>321</v>
       </c>
-      <c r="B9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>628</v>
+      </c>
+      <c r="E13" t="s">
+        <v>629</v>
+      </c>
+      <c r="I13" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -3202,12 +3268,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3215,28 +3281,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>270</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3246,18 +3312,18 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CA873D-6197-48F6-A494-2FF335502137}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3265,15 +3331,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -3281,92 +3353,101 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+      <c r="D4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="E5" t="s">
+        <v>626</v>
+      </c>
+      <c r="G5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>332</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>428</v>
-      </c>
-      <c r="B13" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>434</v>
-      </c>
-      <c r="B14" t="s">
-        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -3382,9 +3463,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3402,15 +3483,15 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3418,36 +3499,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3457,18 +3538,18 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A034C685-69FA-4487-B3BF-C7BF8E932720}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3476,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -3484,7 +3565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3492,7 +3573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -3500,7 +3581,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -3508,7 +3589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -3516,7 +3597,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -3524,148 +3605,178 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+      <c r="E8" t="s">
+        <v>612</v>
+      </c>
+      <c r="H8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" t="s">
         <v>174</v>
       </c>
-      <c r="B10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+      <c r="D11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>185</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B17" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B18" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="D19" t="s">
+        <v>617</v>
+      </c>
+      <c r="F19" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+      <c r="D20" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B21" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="D22" t="s">
+        <v>617</v>
+      </c>
+      <c r="F22" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="D23" t="s">
+        <v>617</v>
+      </c>
+      <c r="F23" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B24" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B25" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -3677,16 +3788,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AD149B-B65F-49C4-AF01-021394194CC2}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3694,19 +3806,19 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3714,15 +3826,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -3730,7 +3842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3738,13 +3850,13 @@
         <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F5" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -3752,7 +3864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3760,13 +3872,13 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F7" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3774,7 +3886,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -3782,7 +3894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3790,7 +3902,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -3798,16 +3910,16 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F11" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G11" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -3815,130 +3927,130 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
+        <v>513</v>
+      </c>
+      <c r="F13" t="s">
+        <v>514</v>
+      </c>
+      <c r="G13" t="s">
+        <v>515</v>
+      </c>
+      <c r="H13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E17" t="s">
+        <v>517</v>
+      </c>
+      <c r="F17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>383</v>
+      </c>
+      <c r="B19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" t="s">
         <v>519</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F21" t="s">
         <v>520</v>
       </c>
-      <c r="G13" t="s">
-        <v>521</v>
-      </c>
-      <c r="H13" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>324</v>
-      </c>
-      <c r="B16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" t="s">
-        <v>352</v>
-      </c>
-      <c r="E17" t="s">
-        <v>523</v>
-      </c>
-      <c r="F17" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>355</v>
-      </c>
-      <c r="B18" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>386</v>
-      </c>
-      <c r="B19" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>390</v>
+      </c>
+      <c r="B22" t="s">
         <v>387</v>
       </c>
-      <c r="B20" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>389</v>
-      </c>
-      <c r="B21" t="s">
-        <v>390</v>
-      </c>
-      <c r="E21" t="s">
-        <v>525</v>
-      </c>
-      <c r="F21" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>393</v>
-      </c>
-      <c r="B22" t="s">
-        <v>390</v>
-      </c>
       <c r="E22" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F22" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B24" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -3951,15 +4063,15 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3967,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -3975,7 +4087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -3983,7 +4095,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -3991,7 +4103,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -3999,60 +4111,60 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -4068,9 +4180,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4085,18 +4197,18 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE7B48C-6A57-4A65-BCF2-21AE9AC194C5}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4104,28 +4216,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+      <c r="E3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>609</v>
+      </c>
+      <c r="E4" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -4135,18 +4253,18 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B164AC79-ACD3-4710-934B-FB8241A3324F}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4154,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4162,7 +4280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4170,7 +4288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -4178,76 +4296,82 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
         <v>135</v>
       </c>
-      <c r="B6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>605</v>
+      </c>
+      <c r="G6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>213</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>215</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B11" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B13" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -4263,9 +4387,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4283,15 +4407,15 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4299,12 +4423,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4320,9 +4444,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4343,13 +4467,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4357,19 +4481,19 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -4377,7 +4501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -4385,21 +4509,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F4" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -4407,19 +4531,19 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F5" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G5" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -4427,7 +4551,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -4435,124 +4559,124 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
         <v>178</v>
       </c>
-      <c r="B9" t="s">
-        <v>179</v>
-      </c>
       <c r="E9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" t="s">
+        <v>529</v>
+      </c>
+      <c r="F10" t="s">
+        <v>530</v>
+      </c>
+      <c r="G10" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E11" t="s">
+        <v>532</v>
+      </c>
+      <c r="F11" t="s">
         <v>533</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" t="s">
+        <v>375</v>
+      </c>
+      <c r="E16" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" t="s">
-        <v>535</v>
-      </c>
-      <c r="F10" t="s">
-        <v>536</v>
-      </c>
-      <c r="G10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E11" t="s">
-        <v>538</v>
-      </c>
-      <c r="F11" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>368</v>
-      </c>
-      <c r="B13" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>372</v>
-      </c>
-      <c r="B15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>377</v>
-      </c>
-      <c r="B16" t="s">
-        <v>378</v>
-      </c>
-      <c r="E16" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>391</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>394</v>
-      </c>
-      <c r="B18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B19" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -4565,17 +4689,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE90B0CB-4A82-4A75-95AE-F3C98AA6F040}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+    <sheetView zoomScale="159" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4583,19 +4707,19 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4603,7 +4727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4611,16 +4735,16 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F3" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -4628,7 +4752,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -4636,13 +4760,13 @@
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -4650,144 +4774,144 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F6" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
         <v>130</v>
       </c>
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
         <v>157</v>
       </c>
-      <c r="B8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F11" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>245</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B22" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4803,9 +4927,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4813,48 +4937,48 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
         <v>159</v>
       </c>
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
       <c r="E2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E3" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -4871,12 +4995,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4884,19 +5008,19 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -4904,7 +5028,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -4912,7 +5036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4920,82 +5044,82 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
         <v>161</v>
       </c>
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E6" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B13" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -5011,12 +5135,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5024,19 +5148,19 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5044,7 +5168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -5052,7 +5176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -5060,13 +5184,13 @@
         <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="F4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -5074,84 +5198,84 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
         <v>151</v>
       </c>
-      <c r="B6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" t="s">
         <v>249</v>
       </c>
-      <c r="B9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B14" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B15" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -5167,12 +5291,12 @@
       <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5180,19 +5304,19 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5200,13 +5324,13 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -5214,16 +5338,16 @@
         <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F3" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -5231,16 +5355,16 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F4" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -5248,16 +5372,16 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F5" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -5265,16 +5389,16 @@
         <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F6" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -5282,16 +5406,16 @@
         <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -5299,7 +5423,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -5307,138 +5431,138 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
         <v>132</v>
       </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
         <v>145</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
+        <v>586</v>
+      </c>
+      <c r="F11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>146</v>
       </c>
-      <c r="E11" t="s">
-        <v>592</v>
-      </c>
-      <c r="F11" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>147</v>
       </c>
-      <c r="B12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s">
         <v>163</v>
       </c>
-      <c r="B13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>167</v>
       </c>
-      <c r="B14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>168</v>
       </c>
-      <c r="B15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
         <v>170</v>
       </c>
-      <c r="B16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B21" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B22" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>398</v>
       </c>
-      <c r="B22" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>400</v>
+      </c>
+      <c r="B24" t="s">
         <v>401</v>
       </c>
-      <c r="B23" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>403</v>
-      </c>
-      <c r="B24" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B25" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -5454,12 +5578,12 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5467,107 +5591,107 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F3" t="s">
+        <v>571</v>
+      </c>
+      <c r="G3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" t="s">
         <v>573</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" t="s">
         <v>574</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F7" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8" t="s">
         <v>576</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B9" t="s">
         <v>577</v>
-      </c>
-      <c r="G3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E6" t="s">
-        <v>579</v>
-      </c>
-      <c r="F6" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B7" t="s">
-        <v>379</v>
-      </c>
-      <c r="E7" t="s">
-        <v>580</v>
-      </c>
-      <c r="F7" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>406</v>
-      </c>
-      <c r="B8" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>407</v>
-      </c>
-      <c r="B9" t="s">
-        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divek\Documents\GitHub\Inclusive-Language-using-Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Inclusive-Language-using-Python\Inclusive-Language-using-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A4E662-C9CA-499F-BD1C-5A4AFA8767F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4077CE5E-B50A-47DF-932C-A7E281194A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="13" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="8" xr2:uid="{20A34141-9B13-4300-9F48-2DF660D6B3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="633">
   <si>
     <t>KEY</t>
   </si>
@@ -1951,6 +1951,12 @@
   </si>
   <si>
     <t>he has a mental-health disability</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>element</t>
   </si>
 </sst>
 </file>
@@ -2330,12 +2336,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2361,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -2417,7 +2423,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -2451,7 +2457,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>231</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>241</v>
       </c>
@@ -2496,7 +2502,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>328</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>346</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>413</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>453</v>
       </c>
@@ -2574,9 +2580,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2597,12 +2603,12 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>258</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>260</v>
       </c>
@@ -2644,7 +2650,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>357</v>
       </c>
@@ -2665,12 +2671,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2681,7 +2687,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2689,7 +2695,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>262</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>295</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>543</v>
       </c>
@@ -2739,7 +2745,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -2747,7 +2753,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>409</v>
       </c>
@@ -2755,7 +2761,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>430</v>
       </c>
@@ -2763,7 +2769,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>455</v>
       </c>
@@ -2784,13 +2790,13 @@
       <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2815,7 +2821,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2837,7 +2843,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2845,7 +2851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2879,7 +2885,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2918,7 +2924,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -2937,7 +2943,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -2945,7 +2951,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>171</v>
       </c>
@@ -2959,7 +2965,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>181</v>
       </c>
@@ -2967,7 +2973,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>227</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>237</v>
       </c>
@@ -2999,7 +3005,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>284</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>301</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>317</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>340</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>342</v>
       </c>
@@ -3051,7 +3057,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>350</v>
       </c>
@@ -3062,7 +3068,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>381</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>415</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>426</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -3094,7 +3100,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>449</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>451</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>465</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>466</v>
       </c>
@@ -3135,16 +3141,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F643455A-BF54-40F7-A3F8-8EAD8E02FB93}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>207</v>
       </c>
@@ -3184,7 +3190,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>264</v>
       </c>
@@ -3192,7 +3198,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>266</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>299</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>319</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>320</v>
       </c>
@@ -3224,7 +3230,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>354</v>
       </c>
@@ -3232,7 +3238,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>371</v>
       </c>
@@ -3240,7 +3246,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>405</v>
       </c>
@@ -3268,12 +3274,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3281,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>270</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -3318,12 +3324,12 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3378,7 +3384,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>272</v>
       </c>
@@ -3386,7 +3392,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -3394,7 +3400,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>330</v>
       </c>
@@ -3402,7 +3408,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>332</v>
       </c>
@@ -3410,7 +3416,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>338</v>
       </c>
@@ -3418,7 +3424,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>361</v>
       </c>
@@ -3426,7 +3432,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>421</v>
       </c>
@@ -3434,7 +3440,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>422</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>428</v>
       </c>
@@ -3463,9 +3469,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3486,12 +3492,12 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3499,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3507,7 +3513,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>274</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>280</v>
       </c>
@@ -3544,12 +3550,12 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3557,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -3565,7 +3571,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3573,7 +3579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -3589,7 +3595,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -3597,7 +3603,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -3605,7 +3611,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -3619,7 +3625,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -3627,7 +3633,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -3635,7 +3641,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>180</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>183</v>
       </c>
@@ -3654,7 +3660,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>185</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>239</v>
       </c>
@@ -3670,7 +3676,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>278</v>
       </c>
@@ -3678,7 +3684,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>309</v>
       </c>
@@ -3686,7 +3692,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>324</v>
       </c>
@@ -3702,7 +3708,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>336</v>
       </c>
@@ -3716,7 +3722,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>345</v>
       </c>
@@ -3727,7 +3733,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>410</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>411</v>
       </c>
@@ -3749,7 +3755,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>412</v>
       </c>
@@ -3763,7 +3769,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>424</v>
       </c>
@@ -3771,7 +3777,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>463</v>
       </c>
@@ -3792,13 +3798,13 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3818,7 +3824,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -3834,7 +3840,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -3842,7 +3848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3856,7 +3862,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -3864,7 +3870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3878,7 +3884,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3886,7 +3892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -3894,7 +3900,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3902,7 +3908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -3919,7 +3925,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -3927,7 +3933,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -3947,7 +3953,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -3955,7 +3961,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>288</v>
       </c>
@@ -3963,7 +3969,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>322</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>348</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>352</v>
       </c>
@@ -3993,7 +3999,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>383</v>
       </c>
@@ -4001,7 +4007,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>384</v>
       </c>
@@ -4009,7 +4015,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>386</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>390</v>
       </c>
@@ -4037,7 +4043,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>432</v>
       </c>
@@ -4045,7 +4051,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>443</v>
       </c>
@@ -4066,12 +4072,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4079,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -4087,7 +4093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -4103,7 +4109,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -4119,7 +4125,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>276</v>
       </c>
@@ -4127,7 +4133,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>291</v>
       </c>
@@ -4135,7 +4141,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -4143,7 +4149,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>359</v>
       </c>
@@ -4151,7 +4157,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>379</v>
       </c>
@@ -4159,7 +4165,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>457</v>
       </c>
@@ -4180,9 +4186,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4203,12 +4209,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4216,7 +4222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -4224,7 +4230,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>344</v>
       </c>
@@ -4235,7 +4241,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>414</v>
       </c>
@@ -4259,12 +4265,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4272,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4280,7 +4286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4288,7 +4294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -4296,7 +4302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -4304,7 +4310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -4318,7 +4324,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -4326,7 +4332,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -4334,7 +4340,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -4342,7 +4348,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>225</v>
       </c>
@@ -4350,7 +4356,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>419</v>
       </c>
@@ -4358,7 +4364,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>442</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>459</v>
       </c>
@@ -4387,9 +4393,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4410,12 +4416,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4423,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>217</v>
       </c>
@@ -4444,9 +4450,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4467,13 +4473,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4493,7 +4499,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -4501,7 +4507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -4509,7 +4515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -4523,7 +4529,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -4543,7 +4549,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -4551,7 +4557,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -4559,7 +4565,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -4567,7 +4573,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -4581,7 +4587,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -4598,7 +4604,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -4612,7 +4618,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>334</v>
       </c>
@@ -4620,7 +4626,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>365</v>
       </c>
@@ -4628,7 +4634,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>367</v>
       </c>
@@ -4636,7 +4642,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>369</v>
       </c>
@@ -4644,7 +4650,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>374</v>
       </c>
@@ -4655,7 +4661,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>388</v>
       </c>
@@ -4663,7 +4669,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>391</v>
       </c>
@@ -4671,7 +4677,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>445</v>
       </c>
@@ -4693,13 +4699,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4719,7 +4725,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4727,7 +4733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4744,7 +4750,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -4752,7 +4758,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -4766,7 +4772,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -4780,7 +4786,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -4788,7 +4794,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -4796,7 +4802,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -4804,7 +4810,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>187</v>
       </c>
@@ -4812,7 +4818,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -4834,7 +4840,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -4842,7 +4848,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>243</v>
       </c>
@@ -4850,7 +4856,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>245</v>
       </c>
@@ -4858,7 +4864,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>252</v>
       </c>
@@ -4866,7 +4872,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>290</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>297</v>
       </c>
@@ -4882,7 +4888,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>306</v>
       </c>
@@ -4890,7 +4896,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>396</v>
       </c>
@@ -4898,7 +4904,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -4906,7 +4912,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>406</v>
       </c>
@@ -4927,9 +4933,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4940,7 +4946,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>158</v>
       </c>
@@ -4951,7 +4957,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>307</v>
       </c>
@@ -4965,7 +4971,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>377</v>
       </c>
@@ -4973,7 +4979,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>397</v>
       </c>
@@ -4995,12 +5001,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5020,7 +5026,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -5028,7 +5034,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -5036,7 +5042,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -5044,7 +5050,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -5052,7 +5058,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>254</v>
       </c>
@@ -5066,7 +5072,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>282</v>
       </c>
@@ -5074,7 +5080,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>326</v>
       </c>
@@ -5082,7 +5088,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>592</v>
       </c>
@@ -5090,7 +5096,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>593</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>594</v>
       </c>
@@ -5106,7 +5112,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>417</v>
       </c>
@@ -5114,7 +5120,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>438</v>
       </c>
@@ -5135,12 +5141,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5160,7 +5166,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5168,7 +5174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -5176,7 +5182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -5190,7 +5196,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -5198,7 +5204,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -5206,7 +5212,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -5214,7 +5220,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -5222,7 +5228,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>247</v>
       </c>
@@ -5230,7 +5236,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>248</v>
       </c>
@@ -5238,7 +5244,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>286</v>
       </c>
@@ -5246,7 +5252,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>363</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>434</v>
       </c>
@@ -5262,7 +5268,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>447</v>
       </c>
@@ -5270,7 +5276,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>461</v>
       </c>
@@ -5291,12 +5297,12 @@
       <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5316,7 +5322,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5330,7 +5336,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -5347,7 +5353,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -5364,7 +5370,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -5381,7 +5387,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -5398,7 +5404,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -5415,7 +5421,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -5423,7 +5429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -5431,7 +5437,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -5439,7 +5445,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -5453,7 +5459,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -5461,7 +5467,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -5469,7 +5475,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -5477,7 +5483,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -5485,7 +5491,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>169</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -5501,7 +5507,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -5509,7 +5515,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>256</v>
       </c>
@@ -5517,7 +5523,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>293</v>
       </c>
@@ -5525,7 +5531,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>393</v>
       </c>
@@ -5533,7 +5539,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>395</v>
       </c>
@@ -5541,7 +5547,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>398</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>400</v>
       </c>
@@ -5557,7 +5563,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>440</v>
       </c>
@@ -5572,18 +5578,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF830CD-7188-43CF-8442-1E032F6FA383}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5603,7 +5609,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -5634,7 +5640,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>195</v>
       </c>
@@ -5642,7 +5648,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>233</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>310</v>
       </c>
@@ -5664,7 +5670,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>315</v>
       </c>
@@ -5678,7 +5684,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>403</v>
       </c>
@@ -5686,12 +5692,20 @@
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>404</v>
       </c>
       <c r="B9" t="s">
         <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>631</v>
+      </c>
+      <c r="B10" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
